--- a/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>WAYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,22 +747,22 @@
         <v>5100</v>
       </c>
       <c r="E8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F8" s="3">
         <v>5000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>4200</v>
       </c>
       <c r="K8" s="3">
         <v>4200</v>
@@ -768,22 +771,25 @@
         <v>4200</v>
       </c>
       <c r="M8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N8" s="3">
         <v>4100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,31 +1124,32 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>600</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
@@ -1135,30 +1161,33 @@
         <v>600</v>
       </c>
       <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>700</v>
       </c>
       <c r="Q17" s="3">
+        <v>700</v>
+      </c>
+      <c r="R17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E18" s="3">
         <v>4000</v>
       </c>
       <c r="F18" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G18" s="3">
         <v>3900</v>
@@ -1167,7 +1196,7 @@
         <v>3900</v>
       </c>
       <c r="I18" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="J18" s="3">
         <v>3600</v>
@@ -1179,22 +1208,25 @@
         <v>3600</v>
       </c>
       <c r="M18" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="N18" s="3">
         <v>3500</v>
       </c>
       <c r="O18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P18" s="3">
         <v>3200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>3300</v>
       </c>
       <c r="Q18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1230,37 +1263,40 @@
         <v>-2000</v>
       </c>
       <c r="H20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1288,26 +1324,29 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,13 +1392,16 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E23" s="3">
         <v>1900</v>
@@ -1371,37 +1413,40 @@
         <v>1900</v>
       </c>
       <c r="H23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I23" s="3">
         <v>1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1409,46 +1454,49 @@
         <v>400</v>
       </c>
       <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>400</v>
       </c>
       <c r="G24" s="3">
         <v>400</v>
       </c>
       <c r="H24" s="3">
+        <v>400</v>
+      </c>
+      <c r="I24" s="3">
         <v>300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
       </c>
       <c r="K24" s="3">
+        <v>200</v>
+      </c>
+      <c r="L24" s="3">
         <v>400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>300</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,13 +1542,16 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E26" s="3">
         <v>1600</v>
@@ -1512,42 +1563,45 @@
         <v>1600</v>
       </c>
       <c r="H26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>900</v>
       </c>
       <c r="L26" s="3">
         <v>900</v>
       </c>
       <c r="M26" s="3">
+        <v>900</v>
+      </c>
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E27" s="3">
         <v>1600</v>
@@ -1559,37 +1613,40 @@
         <v>1600</v>
       </c>
       <c r="H27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>900</v>
       </c>
       <c r="L27" s="3">
         <v>900</v>
       </c>
       <c r="M27" s="3">
+        <v>900</v>
+      </c>
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1661,11 +1721,11 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1794,42 +1863,45 @@
         <v>2000</v>
       </c>
       <c r="H32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I32" s="3">
         <v>2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E33" s="3">
         <v>1600</v>
@@ -1841,37 +1913,40 @@
         <v>1600</v>
       </c>
       <c r="H33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>900</v>
       </c>
       <c r="L33" s="3">
         <v>900</v>
       </c>
       <c r="M33" s="3">
+        <v>900</v>
+      </c>
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,13 +1992,16 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E35" s="3">
         <v>1600</v>
@@ -1935,89 +2013,95 @@
         <v>1600</v>
       </c>
       <c r="H35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>900</v>
       </c>
       <c r="L35" s="3">
         <v>900</v>
       </c>
       <c r="M35" s="3">
+        <v>900</v>
+      </c>
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E41" s="3">
         <v>13300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2131,25 +2220,28 @@
         <v>4200</v>
       </c>
       <c r="L42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M42" s="3">
         <v>8400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,55 +2487,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E48" s="3">
         <v>5400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5400</v>
       </c>
       <c r="G48" s="3">
         <v>5400</v>
       </c>
       <c r="H48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I48" s="3">
         <v>5600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>6300</v>
       </c>
       <c r="N48" s="3">
         <v>6300</v>
       </c>
       <c r="O48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="P48" s="3">
         <v>6400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2456,11 +2566,11 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1700</v>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M49" s="3">
         <v>1700</v>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>492600</v>
+      </c>
+      <c r="E54" s="3">
         <v>493900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>488900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>478200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>472900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>471500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>463000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>453500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>439800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>446300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>445200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>448600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>454800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>445800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>449200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2870,17 +3006,17 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
@@ -2891,8 +3027,11 @@
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,8 +3077,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3011,14 +3156,14 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>200</v>
@@ -3027,13 +3172,16 @@
         <v>200</v>
       </c>
       <c r="P62" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q62" s="3">
         <v>400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>444200</v>
+      </c>
+      <c r="E66" s="3">
         <v>446200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>441000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>431900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>428000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>428200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>420500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>411900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>398200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>403700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>403200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>407200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>413800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>404400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>407900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E72" s="3">
         <v>31400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>30300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>29300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>28300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>27000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>26000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>25100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>24400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E76" s="3">
         <v>47700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>46300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>44900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>43200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>42500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>41600</v>
       </c>
       <c r="K76" s="3">
         <v>41600</v>
       </c>
       <c r="L76" s="3">
+        <v>41600</v>
+      </c>
+      <c r="M76" s="3">
         <v>42600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>42000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>41400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>41000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>41400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,65 +3897,71 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E81" s="3">
         <v>1600</v>
@@ -3779,37 +3973,40 @@
         <v>1600</v>
       </c>
       <c r="H81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>900</v>
       </c>
       <c r="L81" s="3">
         <v>900</v>
       </c>
       <c r="M81" s="3">
+        <v>900</v>
+      </c>
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3853,11 +4051,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4135,29 +4351,32 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4201,29 +4421,32 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4342,29 +4571,32 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-2700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7600</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4412,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-200</v>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4596,29 +4841,32 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4690,25 +4941,28 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>WAYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -750,22 +754,22 @@
         <v>5100</v>
       </c>
       <c r="F8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G8" s="3">
         <v>5000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>4200</v>
       </c>
       <c r="L8" s="3">
         <v>4200</v>
@@ -774,22 +778,25 @@
         <v>4200</v>
       </c>
       <c r="N8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O8" s="3">
         <v>4100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,34 +1151,35 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>600</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
@@ -1164,33 +1191,36 @@
         <v>600</v>
       </c>
       <c r="O17" s="3">
+        <v>600</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>700</v>
       </c>
       <c r="Q17" s="3">
         <v>700</v>
       </c>
       <c r="R17" s="3">
+        <v>700</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E18" s="3">
         <v>4100</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4000</v>
       </c>
       <c r="F18" s="3">
         <v>4000</v>
       </c>
       <c r="G18" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="H18" s="3">
         <v>3900</v>
@@ -1199,7 +1229,7 @@
         <v>3900</v>
       </c>
       <c r="J18" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="K18" s="3">
         <v>3600</v>
@@ -1211,22 +1241,25 @@
         <v>3600</v>
       </c>
       <c r="N18" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="O18" s="3">
         <v>3500</v>
       </c>
       <c r="P18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>3300</v>
       </c>
       <c r="R18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,13 +1278,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2000</v>
+        <v>-2600</v>
       </c>
       <c r="E20" s="3">
         <v>-2000</v>
@@ -1266,37 +1300,40 @@
         <v>-2000</v>
       </c>
       <c r="I20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1327,26 +1364,29 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,16 +1435,19 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>2100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1900</v>
       </c>
       <c r="F23" s="3">
         <v>1900</v>
@@ -1416,87 +1459,93 @@
         <v>1900</v>
       </c>
       <c r="I23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J23" s="3">
         <v>1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
         <v>400</v>
       </c>
       <c r="F24" s="3">
+        <v>400</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>400</v>
       </c>
       <c r="H24" s="3">
         <v>400</v>
       </c>
       <c r="I24" s="3">
+        <v>400</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
         <v>400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
       </c>
       <c r="O24" s="3">
+        <v>300</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>200</v>
       </c>
       <c r="R24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,16 +1594,19 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>1700</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1600</v>
       </c>
       <c r="F26" s="3">
         <v>1600</v>
@@ -1566,45 +1618,48 @@
         <v>1600</v>
       </c>
       <c r="I26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>900</v>
       </c>
       <c r="M26" s="3">
         <v>900</v>
       </c>
       <c r="N26" s="3">
+        <v>900</v>
+      </c>
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>1700</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1600</v>
       </c>
       <c r="F27" s="3">
         <v>1600</v>
@@ -1616,37 +1671,40 @@
         <v>1600</v>
       </c>
       <c r="I27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>900</v>
       </c>
       <c r="M27" s="3">
         <v>900</v>
       </c>
       <c r="N27" s="3">
+        <v>900</v>
+      </c>
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1724,11 +1785,11 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,13 +1912,16 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="E32" s="3">
         <v>2000</v>
@@ -1866,45 +1936,48 @@
         <v>2000</v>
       </c>
       <c r="I32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J32" s="3">
         <v>2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>1700</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1600</v>
       </c>
       <c r="F33" s="3">
         <v>1600</v>
@@ -1916,37 +1989,40 @@
         <v>1600</v>
       </c>
       <c r="I33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>900</v>
       </c>
       <c r="M33" s="3">
         <v>900</v>
       </c>
       <c r="N33" s="3">
+        <v>900</v>
+      </c>
+      <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,16 +2071,19 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>1700</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1600</v>
       </c>
       <c r="F35" s="3">
         <v>1600</v>
@@ -2016,92 +2095,98 @@
         <v>1600</v>
       </c>
       <c r="I35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>900</v>
       </c>
       <c r="M35" s="3">
         <v>900</v>
       </c>
       <c r="N35" s="3">
+        <v>900</v>
+      </c>
+      <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E41" s="3">
         <v>30800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2223,25 +2313,28 @@
         <v>4200</v>
       </c>
       <c r="M42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N42" s="3">
         <v>8400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>10800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2499,49 +2607,52 @@
         <v>5300</v>
       </c>
       <c r="E48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F48" s="3">
         <v>5400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5400</v>
       </c>
       <c r="H48" s="3">
         <v>5400</v>
       </c>
       <c r="I48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J48" s="3">
         <v>5600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>6300</v>
       </c>
       <c r="O48" s="3">
         <v>6300</v>
       </c>
       <c r="P48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="Q48" s="3">
         <v>6400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2569,11 +2680,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1700</v>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N49" s="3">
         <v>1700</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>494100</v>
+      </c>
+      <c r="E54" s="3">
         <v>492600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>493900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>488900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>478200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>472900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>471500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>463000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>453500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>439800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>446300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>445200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>448600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>454800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>445800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>449200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E57" s="3">
         <v>6200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3009,17 +3146,17 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3159,14 +3305,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>200</v>
@@ -3175,13 +3321,16 @@
         <v>200</v>
       </c>
       <c r="Q62" s="3">
+        <v>200</v>
+      </c>
+      <c r="R62" s="3">
         <v>400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>445500</v>
+      </c>
+      <c r="E66" s="3">
         <v>444200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>446200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>441000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>431900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>428000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>428200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>420500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>411900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>398200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>403700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>403200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>407200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>413800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>404400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>407900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E72" s="3">
         <v>32600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>31400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>30300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>29300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>28300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>27000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>26000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>25100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>24400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E76" s="3">
         <v>48400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>46300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>44900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>43200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>42500</v>
-      </c>
-      <c r="K76" s="3">
-        <v>41600</v>
       </c>
       <c r="L76" s="3">
         <v>41600</v>
       </c>
       <c r="M76" s="3">
+        <v>41600</v>
+      </c>
+      <c r="N76" s="3">
         <v>42600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>42000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>41400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>41000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>41400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,71 +4089,77 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>1700</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1600</v>
       </c>
       <c r="F81" s="3">
         <v>1600</v>
@@ -3976,37 +4171,40 @@
         <v>1600</v>
       </c>
       <c r="I81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>900</v>
       </c>
       <c r="M81" s="3">
         <v>900</v>
       </c>
       <c r="N81" s="3">
+        <v>900</v>
+      </c>
+      <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4054,11 +4253,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4354,29 +4571,32 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4424,29 +4645,32 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4574,29 +4804,32 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4648,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-200</v>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4844,29 +5090,32 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4944,25 +5196,28 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>WAYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,94 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="E8" s="3">
         <v>5100</v>
@@ -757,22 +761,22 @@
         <v>5100</v>
       </c>
       <c r="G8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H8" s="3">
         <v>5000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>4200</v>
       </c>
       <c r="M8" s="3">
         <v>4200</v>
@@ -781,22 +785,25 @@
         <v>4200</v>
       </c>
       <c r="O8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P8" s="3">
         <v>4100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,37 +1178,38 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
@@ -1194,19 +1221,22 @@
         <v>600</v>
       </c>
       <c r="P17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>700</v>
       </c>
       <c r="R17" s="3">
         <v>700</v>
       </c>
       <c r="S17" s="3">
+        <v>700</v>
+      </c>
+      <c r="T17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,16 +1244,16 @@
         <v>4200</v>
       </c>
       <c r="E18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F18" s="3">
         <v>4100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4000</v>
       </c>
       <c r="G18" s="3">
         <v>4000</v>
       </c>
       <c r="H18" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="I18" s="3">
         <v>3900</v>
@@ -1232,7 +1262,7 @@
         <v>3900</v>
       </c>
       <c r="K18" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="L18" s="3">
         <v>3600</v>
@@ -1244,22 +1274,25 @@
         <v>3600</v>
       </c>
       <c r="O18" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="P18" s="3">
         <v>3500</v>
       </c>
       <c r="Q18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R18" s="3">
         <v>3200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>3300</v>
       </c>
       <c r="S18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,16 +1312,17 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-2000</v>
       </c>
       <c r="F20" s="3">
         <v>-2000</v>
@@ -1303,37 +1337,40 @@
         <v>-2000</v>
       </c>
       <c r="J20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1367,26 +1404,29 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,19 +1478,22 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1900</v>
       </c>
       <c r="G23" s="3">
         <v>1900</v>
@@ -1462,37 +1505,40 @@
         <v>1900</v>
       </c>
       <c r="J23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1500,52 +1546,55 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>400</v>
       </c>
       <c r="G24" s="3">
+        <v>400</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>400</v>
       </c>
       <c r="I24" s="3">
         <v>400</v>
       </c>
       <c r="J24" s="3">
+        <v>400</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>200</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
       </c>
       <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
         <v>400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
       </c>
       <c r="O24" s="3">
         <v>300</v>
       </c>
       <c r="P24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>200</v>
       </c>
       <c r="S24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,19 +1646,22 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1600</v>
       </c>
       <c r="G26" s="3">
         <v>1600</v>
@@ -1621,48 +1673,51 @@
         <v>1600</v>
       </c>
       <c r="J26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>900</v>
       </c>
       <c r="N26" s="3">
         <v>900</v>
       </c>
       <c r="O26" s="3">
+        <v>900</v>
+      </c>
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1600</v>
       </c>
       <c r="G27" s="3">
         <v>1600</v>
@@ -1674,37 +1729,40 @@
         <v>1600</v>
       </c>
       <c r="J27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>900</v>
       </c>
       <c r="N27" s="3">
         <v>900</v>
       </c>
       <c r="O27" s="3">
+        <v>900</v>
+      </c>
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1788,11 +1849,11 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,16 +1982,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>2600</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2000</v>
       </c>
       <c r="F32" s="3">
         <v>2000</v>
@@ -1939,48 +2009,51 @@
         <v>2000</v>
       </c>
       <c r="J32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K32" s="3">
         <v>2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1600</v>
       </c>
       <c r="G33" s="3">
         <v>1600</v>
@@ -1992,37 +2065,40 @@
         <v>1600</v>
       </c>
       <c r="J33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>900</v>
       </c>
       <c r="N33" s="3">
         <v>900</v>
       </c>
       <c r="O33" s="3">
+        <v>900</v>
+      </c>
+      <c r="P33" s="3">
         <v>800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,19 +2150,22 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1600</v>
       </c>
       <c r="G35" s="3">
         <v>1600</v>
@@ -2098,95 +2177,101 @@
         <v>1600</v>
       </c>
       <c r="J35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>900</v>
       </c>
       <c r="N35" s="3">
         <v>900</v>
       </c>
       <c r="O35" s="3">
+        <v>900</v>
+      </c>
+      <c r="P35" s="3">
         <v>800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E41" s="3">
         <v>32800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2316,25 +2406,28 @@
         <v>4200</v>
       </c>
       <c r="N42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O42" s="3">
         <v>8400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>8900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,61 +2703,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="E48" s="3">
         <v>5300</v>
       </c>
       <c r="F48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G48" s="3">
         <v>5400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5400</v>
       </c>
       <c r="I48" s="3">
         <v>5400</v>
       </c>
       <c r="J48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K48" s="3">
         <v>5600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>6300</v>
       </c>
       <c r="P48" s="3">
         <v>6300</v>
       </c>
       <c r="Q48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="R48" s="3">
         <v>6400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2683,11 +2794,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1700</v>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O49" s="3">
         <v>1700</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>534500</v>
+      </c>
+      <c r="E54" s="3">
         <v>494100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>492600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>493900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>488900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>478200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>472900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>471500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>463000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>453500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>439800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>446300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>445200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>448600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>454800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>445800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>449200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3149,17 +3286,17 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3308,14 +3454,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>200</v>
@@ -3324,13 +3470,16 @@
         <v>200</v>
       </c>
       <c r="R62" s="3">
+        <v>200</v>
+      </c>
+      <c r="S62" s="3">
         <v>400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>484300</v>
+      </c>
+      <c r="E66" s="3">
         <v>445500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>444200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>446200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>441000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>431900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>428000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>428200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>420500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>411900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>398200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>403700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>403200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>407200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>413800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>404400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>407900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E72" s="3">
         <v>33400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>32600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>31400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>30300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>29300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>28300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>27000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>25100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>24400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E76" s="3">
         <v>48600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>47700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>46300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>44900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>43200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>42500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>41600</v>
       </c>
       <c r="M76" s="3">
         <v>41600</v>
       </c>
       <c r="N76" s="3">
+        <v>41600</v>
+      </c>
+      <c r="O76" s="3">
         <v>42600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>42000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>41400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>41000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>41400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,77 +4281,83 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1600</v>
       </c>
       <c r="G81" s="3">
         <v>1600</v>
@@ -4174,37 +4369,40 @@
         <v>1600</v>
       </c>
       <c r="J81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>900</v>
       </c>
       <c r="N81" s="3">
         <v>900</v>
       </c>
       <c r="O81" s="3">
+        <v>900</v>
+      </c>
+      <c r="P81" s="3">
         <v>800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4256,11 +4455,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
-        <v>200</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4574,29 +4791,32 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4648,29 +4869,32 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4807,29 +5037,32 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-2700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4885,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-200</v>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5093,29 +5339,32 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5199,25 +5451,28 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>WAYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E8" s="3">
         <v>5000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5100</v>
       </c>
       <c r="F8" s="3">
         <v>5100</v>
@@ -764,22 +768,22 @@
         <v>5100</v>
       </c>
       <c r="H8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I8" s="3">
         <v>5000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>4200</v>
       </c>
       <c r="N8" s="3">
         <v>4200</v>
@@ -788,22 +792,25 @@
         <v>4200</v>
       </c>
       <c r="P8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q8" s="3">
         <v>4100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1205,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,31 +1215,31 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>600</v>
       </c>
       <c r="N17" s="3">
         <v>600</v>
@@ -1224,39 +1251,42 @@
         <v>600</v>
       </c>
       <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>500</v>
-      </c>
-      <c r="R17" s="3">
-        <v>700</v>
       </c>
       <c r="S17" s="3">
         <v>700</v>
       </c>
       <c r="T17" s="3">
+        <v>700</v>
+      </c>
+      <c r="U17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E18" s="3">
         <v>4200</v>
       </c>
       <c r="F18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G18" s="3">
         <v>4100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4000</v>
       </c>
       <c r="H18" s="3">
         <v>4000</v>
       </c>
       <c r="I18" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J18" s="3">
         <v>3900</v>
@@ -1265,7 +1295,7 @@
         <v>3900</v>
       </c>
       <c r="L18" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="M18" s="3">
         <v>3600</v>
@@ -1277,22 +1307,25 @@
         <v>3600</v>
       </c>
       <c r="P18" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="Q18" s="3">
         <v>3500</v>
       </c>
       <c r="R18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S18" s="3">
         <v>3200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>3300</v>
       </c>
       <c r="T18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,19 +1346,20 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-2000</v>
       </c>
       <c r="G20" s="3">
         <v>-2000</v>
@@ -1340,37 +1374,40 @@
         <v>-2000</v>
       </c>
       <c r="K20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1407,26 +1444,29 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,22 +1521,25 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1900</v>
       </c>
       <c r="H23" s="3">
         <v>1900</v>
@@ -1508,93 +1551,99 @@
         <v>1900</v>
       </c>
       <c r="K23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
       </c>
       <c r="F24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G24" s="3">
         <v>400</v>
       </c>
       <c r="H24" s="3">
+        <v>400</v>
+      </c>
+      <c r="I24" s="3">
         <v>300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>400</v>
       </c>
       <c r="J24" s="3">
         <v>400</v>
       </c>
       <c r="K24" s="3">
+        <v>400</v>
+      </c>
+      <c r="L24" s="3">
         <v>300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
       </c>
       <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3">
         <v>400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>300</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
       <c r="Q24" s="3">
+        <v>300</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
-      </c>
-      <c r="S24" s="3">
-        <v>200</v>
       </c>
       <c r="T24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,22 +1698,25 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1600</v>
       </c>
       <c r="H26" s="3">
         <v>1600</v>
@@ -1676,51 +1728,54 @@
         <v>1600</v>
       </c>
       <c r="K26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>900</v>
       </c>
       <c r="O26" s="3">
         <v>900</v>
       </c>
       <c r="P26" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q26" s="3">
         <v>800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1600</v>
       </c>
       <c r="H27" s="3">
         <v>1600</v>
@@ -1732,37 +1787,40 @@
         <v>1600</v>
       </c>
       <c r="K27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>900</v>
       </c>
       <c r="O27" s="3">
         <v>900</v>
       </c>
       <c r="P27" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1852,11 +1913,11 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,19 +2052,22 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2000</v>
       </c>
       <c r="G32" s="3">
         <v>2000</v>
@@ -2012,51 +2082,54 @@
         <v>2000</v>
       </c>
       <c r="K32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L32" s="3">
         <v>2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1600</v>
       </c>
       <c r="H33" s="3">
         <v>1600</v>
@@ -2068,37 +2141,40 @@
         <v>1600</v>
       </c>
       <c r="K33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>900</v>
       </c>
       <c r="O33" s="3">
         <v>900</v>
       </c>
       <c r="P33" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q33" s="3">
         <v>800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,22 +2229,25 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1600</v>
       </c>
       <c r="H35" s="3">
         <v>1600</v>
@@ -2180,98 +2259,104 @@
         <v>1600</v>
       </c>
       <c r="K35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>900</v>
       </c>
       <c r="O35" s="3">
         <v>900</v>
       </c>
       <c r="P35" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q35" s="3">
         <v>800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E41" s="3">
         <v>40400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>32800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2409,25 +2499,28 @@
         <v>4200</v>
       </c>
       <c r="O42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P42" s="3">
         <v>8400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>8900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,55 +2823,58 @@
         <v>5400</v>
       </c>
       <c r="E48" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F48" s="3">
         <v>5300</v>
       </c>
       <c r="G48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H48" s="3">
         <v>5400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5400</v>
       </c>
       <c r="J48" s="3">
         <v>5400</v>
       </c>
       <c r="K48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L48" s="3">
         <v>5600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6200</v>
-      </c>
-      <c r="P48" s="3">
-        <v>6300</v>
       </c>
       <c r="Q48" s="3">
         <v>6300</v>
       </c>
       <c r="R48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="S48" s="3">
         <v>6400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2797,11 +2908,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1700</v>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P49" s="3">
         <v>1700</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>550700</v>
+      </c>
+      <c r="E54" s="3">
         <v>534500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>494100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>492600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>493900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>488900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>478200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>472900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>471500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>463000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>453500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>439800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>446300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>445200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>448600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>454800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>445800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>449200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3388,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3289,17 +3426,17 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
@@ -3310,8 +3447,11 @@
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3457,14 +3603,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="3">
         <v>200</v>
@@ -3473,13 +3619,16 @@
         <v>200</v>
       </c>
       <c r="S62" s="3">
+        <v>200</v>
+      </c>
+      <c r="T62" s="3">
         <v>400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>499900</v>
+      </c>
+      <c r="E66" s="3">
         <v>484300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>445500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>444200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>446200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>441000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>431900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>428000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>428200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>420500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>411900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>398200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>403700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>403200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>407200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>413800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>404400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>407900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E72" s="3">
         <v>34600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>33400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>32600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>31400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>30300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>29300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>28300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>27000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>26000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>25100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>24400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E76" s="3">
         <v>50200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>47700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>46300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>44900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>43200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>42500</v>
-      </c>
-      <c r="M76" s="3">
-        <v>41600</v>
       </c>
       <c r="N76" s="3">
         <v>41600</v>
       </c>
       <c r="O76" s="3">
+        <v>41600</v>
+      </c>
+      <c r="P76" s="3">
         <v>42600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>42000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>41400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>41000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>41400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,83 +4473,89 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1600</v>
       </c>
       <c r="H81" s="3">
         <v>1600</v>
@@ -4372,37 +4567,40 @@
         <v>1600</v>
       </c>
       <c r="K81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
-      </c>
-      <c r="N81" s="3">
-        <v>900</v>
       </c>
       <c r="O81" s="3">
         <v>900</v>
       </c>
       <c r="P81" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q81" s="3">
         <v>800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4458,11 +4657,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
-        <v>200</v>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4794,29 +5011,32 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4872,29 +5093,32 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5040,29 +5270,32 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-2700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5122,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-200</v>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5342,29 +5588,32 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5454,25 +5706,28 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>WAYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,165 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="E8" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="F8" s="3">
         <v>5100</v>
       </c>
       <c r="G8" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="H8" s="3">
         <v>5100</v>
       </c>
       <c r="I8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K8" s="3">
         <v>5000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>4200</v>
-      </c>
-      <c r="O8" s="3">
-        <v>4200</v>
       </c>
       <c r="P8" s="3">
         <v>4200</v>
       </c>
       <c r="Q8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="S8" s="3">
         <v>4100</v>
-      </c>
-      <c r="R8" s="3">
-        <v>4000</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3900</v>
       </c>
       <c r="T8" s="3">
         <v>4000</v>
       </c>
       <c r="U8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="V8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="W8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +881,14 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1101,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1166,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1257,10 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1215,37 +1268,37 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>800</v>
+      </c>
+      <c r="H17" s="3">
         <v>900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1100</v>
       </c>
       <c r="I17" s="3">
         <v>1000</v>
       </c>
       <c r="J17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="3">
         <v>900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>700</v>
       </c>
       <c r="M17" s="3">
         <v>800</v>
       </c>
       <c r="N17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
@@ -1254,54 +1307,60 @@
         <v>600</v>
       </c>
       <c r="R17" s="3">
+        <v>600</v>
+      </c>
+      <c r="S17" s="3">
+        <v>600</v>
+      </c>
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F18" s="3">
         <v>4300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>4200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>4200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>4100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>4000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>4000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>3900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>3900</v>
       </c>
       <c r="L18" s="3">
         <v>3900</v>
       </c>
       <c r="M18" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="N18" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="O18" s="3">
         <v>3600</v>
@@ -1310,22 +1369,28 @@
         <v>3600</v>
       </c>
       <c r="Q18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S18" s="3">
         <v>3500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>3200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>3300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,25 +1412,27 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2000</v>
       </c>
       <c r="I20" s="3">
         <v>-2000</v>
@@ -1377,37 +1444,43 @@
         <v>-2000</v>
       </c>
       <c r="L20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="N20" s="3">
         <v>-2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-2300</v>
       </c>
       <c r="P20" s="3">
         <v>-2400</v>
       </c>
       <c r="Q20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="S20" s="3">
         <v>-2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-2700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-2800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-2500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1447,26 +1520,32 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,28 +1603,34 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F23" s="3">
         <v>2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1900</v>
       </c>
       <c r="J23" s="3">
         <v>1900</v>
@@ -1554,96 +1639,108 @@
         <v>1900</v>
       </c>
       <c r="L23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1300</v>
       </c>
       <c r="P23" s="3">
         <v>1200</v>
       </c>
       <c r="Q23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S23" s="3">
         <v>1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>400</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>400</v>
       </c>
       <c r="K24" s="3">
+        <v>300</v>
+      </c>
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
+        <v>400</v>
+      </c>
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
-      </c>
-      <c r="R24" s="3">
-        <v>200</v>
-      </c>
-      <c r="S24" s="3">
-        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>200</v>
       </c>
       <c r="U24" s="3">
+        <v>100</v>
+      </c>
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,8 +1798,14 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1710,19 +1813,19 @@
         <v>1900</v>
       </c>
       <c r="E26" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F26" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="G26" s="3">
         <v>1700</v>
       </c>
       <c r="H26" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="I26" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J26" s="3">
         <v>1600</v>
@@ -1731,37 +1834,43 @@
         <v>1600</v>
       </c>
       <c r="L26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>800</v>
-      </c>
-      <c r="R26" s="3">
-        <v>600</v>
-      </c>
-      <c r="S26" s="3">
-        <v>300</v>
       </c>
       <c r="T26" s="3">
         <v>600</v>
       </c>
       <c r="U26" s="3">
+        <v>300</v>
+      </c>
+      <c r="V26" s="3">
+        <v>600</v>
+      </c>
+      <c r="W26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1769,19 +1878,19 @@
         <v>1900</v>
       </c>
       <c r="E27" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F27" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="G27" s="3">
         <v>1700</v>
       </c>
       <c r="H27" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="I27" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J27" s="3">
         <v>1600</v>
@@ -1790,37 +1899,43 @@
         <v>1600</v>
       </c>
       <c r="L27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>800</v>
-      </c>
-      <c r="R27" s="3">
-        <v>600</v>
-      </c>
-      <c r="S27" s="3">
-        <v>300</v>
       </c>
       <c r="T27" s="3">
         <v>600</v>
       </c>
       <c r="U27" s="3">
+        <v>300</v>
+      </c>
+      <c r="V27" s="3">
+        <v>600</v>
+      </c>
+      <c r="W27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,31 +1993,37 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1916,14 +2037,14 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -1937,8 +2058,14 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,25 +2188,31 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F32" s="3">
         <v>1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>2600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2000</v>
       </c>
       <c r="I32" s="3">
         <v>2000</v>
@@ -2085,37 +2224,43 @@
         <v>2000</v>
       </c>
       <c r="L32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N32" s="3">
         <v>2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>2400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2300</v>
       </c>
       <c r="P32" s="3">
         <v>2400</v>
       </c>
       <c r="Q32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S32" s="3">
         <v>2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>2700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>2800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>2500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2123,19 +2268,19 @@
         <v>1900</v>
       </c>
       <c r="E33" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F33" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="G33" s="3">
         <v>1700</v>
       </c>
       <c r="H33" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="I33" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J33" s="3">
         <v>1600</v>
@@ -2144,37 +2289,43 @@
         <v>1600</v>
       </c>
       <c r="L33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>800</v>
-      </c>
-      <c r="R33" s="3">
-        <v>600</v>
-      </c>
-      <c r="S33" s="3">
-        <v>300</v>
       </c>
       <c r="T33" s="3">
         <v>600</v>
       </c>
       <c r="U33" s="3">
+        <v>300</v>
+      </c>
+      <c r="V33" s="3">
+        <v>600</v>
+      </c>
+      <c r="W33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,8 +2383,14 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2241,19 +2398,19 @@
         <v>1900</v>
       </c>
       <c r="E35" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F35" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="G35" s="3">
         <v>1700</v>
       </c>
       <c r="H35" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="I35" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J35" s="3">
         <v>1600</v>
@@ -2262,101 +2419,113 @@
         <v>1600</v>
       </c>
       <c r="L35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>800</v>
-      </c>
-      <c r="R35" s="3">
-        <v>600</v>
-      </c>
-      <c r="S35" s="3">
-        <v>300</v>
       </c>
       <c r="T35" s="3">
         <v>600</v>
       </c>
       <c r="U35" s="3">
+        <v>300</v>
+      </c>
+      <c r="V35" s="3">
+        <v>600</v>
+      </c>
+      <c r="W35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2572,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>74500</v>
+      </c>
+      <c r="F41" s="3">
         <v>53800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>40400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>32800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>30800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>13300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>15700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>13100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>11200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>14600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>11200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>6000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>10100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>5400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2502,25 +2681,31 @@
         <v>4200</v>
       </c>
       <c r="P42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R42" s="3">
         <v>8400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>8900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>9100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>10800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>7700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2763,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2828,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2893,14 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2958,14 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +3023,14 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2823,58 +3038,64 @@
         <v>5400</v>
       </c>
       <c r="E48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F48" s="3">
         <v>5400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H48" s="3">
         <v>5300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5600</v>
       </c>
       <c r="J48" s="3">
         <v>5400</v>
       </c>
       <c r="K48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="L48" s="3">
         <v>5400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="N48" s="3">
         <v>5600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>6300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>6300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>6400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>6600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2911,14 +3132,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3">
-        <v>1700</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1700</v>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R49" s="3">
         <v>1700</v>
@@ -2932,8 +3153,14 @@
       <c r="U49" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W49" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3283,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3348,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>613300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>591600</v>
+      </c>
+      <c r="F54" s="3">
         <v>550700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>534500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>494100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>492600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>493900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>488900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>478200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>472900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>471500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>463000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>453500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>439800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>446300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>445200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>448600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>454800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>445800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>449200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3532,75 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F57" s="3">
         <v>5000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>6200</v>
       </c>
       <c r="H57" s="3">
         <v>4700</v>
       </c>
       <c r="I57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K57" s="3">
         <v>3800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3900</v>
-      </c>
-      <c r="R57" s="3">
-        <v>3500</v>
-      </c>
-      <c r="S57" s="3">
-        <v>4600</v>
       </c>
       <c r="T57" s="3">
         <v>3500</v>
       </c>
       <c r="U57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="V57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="W57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,8 +3658,14 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3429,20 +3702,20 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
@@ -3450,8 +3723,14 @@
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,8 +3788,14 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3853,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3606,29 +3897,35 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3">
-        <v>200</v>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S62" s="3">
         <v>200</v>
       </c>
       <c r="T62" s="3">
+        <v>200</v>
+      </c>
+      <c r="U62" s="3">
+        <v>200</v>
+      </c>
+      <c r="V62" s="3">
         <v>400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>560900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>539500</v>
+      </c>
+      <c r="F66" s="3">
         <v>499900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>484300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>445500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>444200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>446200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>441000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>431900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>428000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>428200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>420500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>411900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>398200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>403700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>403200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>407200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>413800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>404400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>407900</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>37300</v>
+      </c>
+      <c r="F72" s="3">
         <v>36000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>34600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>33400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>32600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>31400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>30300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>29300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>28300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>27000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>26000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>25100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>24400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>23800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>23200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>22600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>22300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>22200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>52100</v>
+      </c>
+      <c r="F76" s="3">
         <v>50900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>50200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>48600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>48400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>47700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>48000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>46300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>44900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>43200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>42500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>41600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>41600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>42600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>42000</v>
-      </c>
-      <c r="R76" s="3">
-        <v>41400</v>
-      </c>
-      <c r="S76" s="3">
-        <v>41000</v>
       </c>
       <c r="T76" s="3">
         <v>41400</v>
       </c>
       <c r="U76" s="3">
+        <v>41000</v>
+      </c>
+      <c r="V76" s="3">
+        <v>41400</v>
+      </c>
+      <c r="W76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,72 +4853,84 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4549,19 +4938,19 @@
         <v>1900</v>
       </c>
       <c r="E81" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F81" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="G81" s="3">
         <v>1700</v>
       </c>
       <c r="H81" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="I81" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J81" s="3">
         <v>1600</v>
@@ -4570,37 +4959,43 @@
         <v>1600</v>
       </c>
       <c r="L81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>800</v>
-      </c>
-      <c r="R81" s="3">
-        <v>600</v>
-      </c>
-      <c r="S81" s="3">
-        <v>300</v>
       </c>
       <c r="T81" s="3">
         <v>600</v>
       </c>
       <c r="U81" s="3">
+        <v>300</v>
+      </c>
+      <c r="V81" s="3">
+        <v>600</v>
+      </c>
+      <c r="W81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4660,14 +5057,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -4681,8 +5078,14 @@
       <c r="U83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>200</v>
+      </c>
+      <c r="W83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5403,14 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5014,29 +5447,35 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5096,29 +5537,35 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5688,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5273,29 +5732,35 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-3100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-7600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5359,10 +5826,10 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>-200</v>
@@ -5376,8 +5843,14 @@
       <c r="U96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +6038,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5591,29 +6082,35 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-4700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-6200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>8700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-3400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +6168,14 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5709,25 +6212,31 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-5500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>7900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-3200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>WAYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -766,16 +770,16 @@
         <v>5400</v>
       </c>
       <c r="E8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F8" s="3">
         <v>5200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5100</v>
       </c>
       <c r="I8" s="3">
         <v>5100</v>
@@ -784,22 +788,22 @@
         <v>5100</v>
       </c>
       <c r="K8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L8" s="3">
         <v>5000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4400</v>
-      </c>
-      <c r="P8" s="3">
-        <v>4200</v>
       </c>
       <c r="Q8" s="3">
         <v>4200</v>
@@ -808,22 +812,25 @@
         <v>4200</v>
       </c>
       <c r="S8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="T8" s="3">
         <v>4100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,49 +1285,50 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>800</v>
       </c>
       <c r="G17" s="3">
         <v>800</v>
       </c>
       <c r="H17" s="3">
+        <v>800</v>
+      </c>
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>600</v>
       </c>
       <c r="Q17" s="3">
         <v>600</v>
@@ -1313,48 +1340,51 @@
         <v>600</v>
       </c>
       <c r="T17" s="3">
+        <v>600</v>
+      </c>
+      <c r="U17" s="3">
         <v>500</v>
-      </c>
-      <c r="U17" s="3">
-        <v>700</v>
       </c>
       <c r="V17" s="3">
         <v>700</v>
       </c>
       <c r="W17" s="3">
+        <v>700</v>
+      </c>
+      <c r="X17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E18" s="3">
         <v>4600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4200</v>
       </c>
       <c r="H18" s="3">
         <v>4200</v>
       </c>
       <c r="I18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J18" s="3">
         <v>4100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>4000</v>
       </c>
       <c r="K18" s="3">
         <v>4000</v>
       </c>
       <c r="L18" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="M18" s="3">
         <v>3900</v>
@@ -1363,7 +1393,7 @@
         <v>3900</v>
       </c>
       <c r="O18" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="P18" s="3">
         <v>3600</v>
@@ -1375,22 +1405,25 @@
         <v>3600</v>
       </c>
       <c r="S18" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="T18" s="3">
         <v>3500</v>
       </c>
       <c r="U18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="V18" s="3">
         <v>3200</v>
-      </c>
-      <c r="V18" s="3">
-        <v>3300</v>
       </c>
       <c r="W18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,28 +1447,29 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2000</v>
       </c>
       <c r="J20" s="3">
         <v>-2000</v>
@@ -1450,37 +1484,40 @@
         <v>-2000</v>
       </c>
       <c r="N20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1526,26 +1563,29 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>1400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,31 +1649,34 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1900</v>
       </c>
       <c r="K23" s="3">
         <v>1900</v>
@@ -1645,102 +1688,108 @@
         <v>1900</v>
       </c>
       <c r="N23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O23" s="3">
         <v>1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
-      </c>
-      <c r="E24" s="3">
-        <v>400</v>
       </c>
       <c r="F24" s="3">
         <v>400</v>
       </c>
       <c r="G24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
       </c>
       <c r="I24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>400</v>
       </c>
       <c r="K24" s="3">
+        <v>400</v>
+      </c>
+      <c r="L24" s="3">
         <v>300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>400</v>
       </c>
       <c r="M24" s="3">
         <v>400</v>
       </c>
       <c r="N24" s="3">
+        <v>400</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
       </c>
       <c r="Q24" s="3">
+        <v>200</v>
+      </c>
+      <c r="R24" s="3">
         <v>400</v>
-      </c>
-      <c r="R24" s="3">
-        <v>300</v>
       </c>
       <c r="S24" s="3">
         <v>300</v>
       </c>
       <c r="T24" s="3">
+        <v>300</v>
+      </c>
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
-      </c>
-      <c r="V24" s="3">
-        <v>200</v>
       </c>
       <c r="W24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,31 +1853,34 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1600</v>
       </c>
       <c r="K26" s="3">
         <v>1600</v>
@@ -1840,60 +1892,63 @@
         <v>1600</v>
       </c>
       <c r="N26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>900</v>
       </c>
       <c r="R26" s="3">
         <v>900</v>
       </c>
       <c r="S26" s="3">
+        <v>900</v>
+      </c>
+      <c r="T26" s="3">
         <v>800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1600</v>
       </c>
       <c r="K27" s="3">
         <v>1600</v>
@@ -1905,37 +1960,40 @@
         <v>1600</v>
       </c>
       <c r="N27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>900</v>
       </c>
       <c r="R27" s="3">
         <v>900</v>
       </c>
       <c r="S27" s="3">
+        <v>900</v>
+      </c>
+      <c r="T27" s="3">
         <v>800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,8 +2086,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -2043,11 +2104,11 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,28 +2261,31 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2000</v>
       </c>
       <c r="J32" s="3">
         <v>2000</v>
@@ -2230,60 +2300,63 @@
         <v>2000</v>
       </c>
       <c r="N32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O32" s="3">
         <v>2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1600</v>
       </c>
       <c r="K33" s="3">
         <v>1600</v>
@@ -2295,37 +2368,40 @@
         <v>1600</v>
       </c>
       <c r="N33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>900</v>
       </c>
       <c r="R33" s="3">
         <v>900</v>
       </c>
       <c r="S33" s="3">
+        <v>900</v>
+      </c>
+      <c r="T33" s="3">
         <v>800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,31 +2465,34 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1600</v>
       </c>
       <c r="K35" s="3">
         <v>1600</v>
@@ -2425,107 +2504,113 @@
         <v>1600</v>
       </c>
       <c r="N35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>900</v>
       </c>
       <c r="R35" s="3">
         <v>900</v>
       </c>
       <c r="S35" s="3">
+        <v>900</v>
+      </c>
+      <c r="T35" s="3">
         <v>800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E41" s="3">
         <v>52800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>74500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>53800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>40400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>32800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2687,25 +2777,28 @@
         <v>4200</v>
       </c>
       <c r="R42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="S42" s="3">
         <v>8400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>8900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>9100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>10800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>7700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3038,64 +3146,67 @@
         <v>5400</v>
       </c>
       <c r="E48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F48" s="3">
         <v>5500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5400</v>
       </c>
       <c r="G48" s="3">
         <v>5400</v>
       </c>
       <c r="H48" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="I48" s="3">
         <v>5300</v>
       </c>
       <c r="J48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K48" s="3">
         <v>5400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>5400</v>
       </c>
       <c r="M48" s="3">
         <v>5400</v>
       </c>
       <c r="N48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="O48" s="3">
         <v>5600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6200</v>
-      </c>
-      <c r="S48" s="3">
-        <v>6300</v>
       </c>
       <c r="T48" s="3">
         <v>6300</v>
       </c>
       <c r="U48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="V48" s="3">
         <v>6400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3138,11 +3249,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
-        <v>1700</v>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S49" s="3">
         <v>1700</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>628700</v>
+      </c>
+      <c r="E54" s="3">
         <v>613300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>591600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>550700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>534500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>494100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>492600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>493900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>488900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>478200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>472900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>471500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>463000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>453500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>439800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>446300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>445200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>448600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>454800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>445800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>449200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>4900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3708,17 +3845,17 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
+      <c r="T59" s="3">
+        <v>0</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>5</v>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3903,14 +4049,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T62" s="3">
         <v>200</v>
@@ -3919,13 +4065,16 @@
         <v>200</v>
       </c>
       <c r="V62" s="3">
+        <v>200</v>
+      </c>
+      <c r="W62" s="3">
         <v>400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>576700</v>
+      </c>
+      <c r="E66" s="3">
         <v>560900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>539500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>499900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>484300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>445500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>444200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>446200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>441000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>431900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>428000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>428200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>420500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>411900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>398200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>403700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>403200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>407200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>413800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>404400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>407900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E72" s="3">
         <v>38600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>37300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>36000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>34600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>33400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>32600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>31400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>29300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>27000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>26000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>25100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>24400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>22200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E76" s="3">
         <v>52400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>50900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>50200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>47700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>46300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>44900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>43200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>42500</v>
-      </c>
-      <c r="P76" s="3">
-        <v>41600</v>
       </c>
       <c r="Q76" s="3">
         <v>41600</v>
       </c>
       <c r="R76" s="3">
+        <v>41600</v>
+      </c>
+      <c r="S76" s="3">
         <v>42600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>42000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>41400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>41000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>41400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,101 +5048,107 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>1600</v>
       </c>
       <c r="K81" s="3">
         <v>1600</v>
@@ -4965,37 +5160,40 @@
         <v>1600</v>
       </c>
       <c r="N81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>900</v>
       </c>
       <c r="R81" s="3">
         <v>900</v>
       </c>
       <c r="S81" s="3">
+        <v>900</v>
+      </c>
+      <c r="T81" s="3">
         <v>800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5063,11 +5262,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
-        <v>200</v>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5453,29 +5670,32 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>1100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5543,29 +5764,32 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5738,29 +5968,32 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-2700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7600</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5832,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>-200</v>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6088,29 +6334,32 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>8700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6218,25 +6470,28 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-1100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>7900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>WAYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,128 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="E8" s="3">
         <v>5400</v>
       </c>
       <c r="F8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G8" s="3">
         <v>5200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>5100</v>
       </c>
       <c r="J8" s="3">
         <v>5100</v>
@@ -791,22 +795,22 @@
         <v>5100</v>
       </c>
       <c r="L8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="M8" s="3">
         <v>5000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>4200</v>
       </c>
       <c r="R8" s="3">
         <v>4200</v>
@@ -815,22 +819,25 @@
         <v>4200</v>
       </c>
       <c r="T8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="U8" s="3">
         <v>4100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,52 +1312,53 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
+        <v>800</v>
+      </c>
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>600</v>
       </c>
       <c r="R17" s="3">
         <v>600</v>
@@ -1343,51 +1370,54 @@
         <v>600</v>
       </c>
       <c r="U17" s="3">
+        <v>600</v>
+      </c>
+      <c r="V17" s="3">
         <v>500</v>
-      </c>
-      <c r="V17" s="3">
-        <v>700</v>
       </c>
       <c r="W17" s="3">
         <v>700</v>
       </c>
       <c r="X17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E18" s="3">
         <v>4500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4200</v>
       </c>
       <c r="I18" s="3">
         <v>4200</v>
       </c>
       <c r="J18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K18" s="3">
         <v>4100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>4000</v>
       </c>
       <c r="L18" s="3">
         <v>4000</v>
       </c>
       <c r="M18" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="N18" s="3">
         <v>3900</v>
@@ -1396,7 +1426,7 @@
         <v>3900</v>
       </c>
       <c r="P18" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="Q18" s="3">
         <v>3600</v>
@@ -1408,22 +1438,25 @@
         <v>3600</v>
       </c>
       <c r="T18" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="U18" s="3">
         <v>3500</v>
       </c>
       <c r="V18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="W18" s="3">
         <v>3200</v>
-      </c>
-      <c r="W18" s="3">
-        <v>3300</v>
       </c>
       <c r="X18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,31 +1481,32 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-2000</v>
       </c>
       <c r="K20" s="3">
         <v>-2000</v>
@@ -1487,37 +1521,40 @@
         <v>-2000</v>
       </c>
       <c r="O20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1566,26 +1603,29 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>1400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,34 +1692,37 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1900</v>
       </c>
       <c r="L23" s="3">
         <v>1900</v>
@@ -1691,37 +1734,40 @@
         <v>1900</v>
       </c>
       <c r="O23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P23" s="3">
         <v>1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1729,67 +1775,70 @@
         <v>400</v>
       </c>
       <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>400</v>
       </c>
       <c r="G24" s="3">
         <v>400</v>
       </c>
       <c r="H24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
       </c>
       <c r="J24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K24" s="3">
         <v>400</v>
       </c>
       <c r="L24" s="3">
+        <v>400</v>
+      </c>
+      <c r="M24" s="3">
         <v>300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>400</v>
       </c>
       <c r="N24" s="3">
         <v>400</v>
       </c>
       <c r="O24" s="3">
+        <v>400</v>
+      </c>
+      <c r="P24" s="3">
         <v>300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
       </c>
       <c r="R24" s="3">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
         <v>400</v>
-      </c>
-      <c r="S24" s="3">
-        <v>300</v>
       </c>
       <c r="T24" s="3">
         <v>300</v>
       </c>
       <c r="U24" s="3">
+        <v>300</v>
+      </c>
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
-      </c>
-      <c r="W24" s="3">
-        <v>200</v>
       </c>
       <c r="X24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,34 +1905,37 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1600</v>
       </c>
       <c r="L26" s="3">
         <v>1600</v>
@@ -1895,63 +1947,66 @@
         <v>1600</v>
       </c>
       <c r="O26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1000</v>
-      </c>
-      <c r="R26" s="3">
-        <v>900</v>
       </c>
       <c r="S26" s="3">
         <v>900</v>
       </c>
       <c r="T26" s="3">
+        <v>900</v>
+      </c>
+      <c r="U26" s="3">
         <v>800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1600</v>
       </c>
       <c r="L27" s="3">
         <v>1600</v>
@@ -1963,37 +2018,40 @@
         <v>1600</v>
       </c>
       <c r="O27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>900</v>
       </c>
       <c r="S27" s="3">
         <v>900</v>
       </c>
       <c r="T27" s="3">
+        <v>900</v>
+      </c>
+      <c r="U27" s="3">
         <v>800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2089,8 +2150,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2107,11 +2168,11 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,31 +2331,34 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>2000</v>
       </c>
       <c r="K32" s="3">
         <v>2000</v>
@@ -2303,63 +2373,66 @@
         <v>2000</v>
       </c>
       <c r="O32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P32" s="3">
         <v>2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1600</v>
       </c>
       <c r="L33" s="3">
         <v>1600</v>
@@ -2371,37 +2444,40 @@
         <v>1600</v>
       </c>
       <c r="O33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1000</v>
-      </c>
-      <c r="R33" s="3">
-        <v>900</v>
       </c>
       <c r="S33" s="3">
         <v>900</v>
       </c>
       <c r="T33" s="3">
+        <v>900</v>
+      </c>
+      <c r="U33" s="3">
         <v>800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,34 +2544,37 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1600</v>
       </c>
       <c r="L35" s="3">
         <v>1600</v>
@@ -2507,110 +2586,116 @@
         <v>1600</v>
       </c>
       <c r="O35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1000</v>
-      </c>
-      <c r="R35" s="3">
-        <v>900</v>
       </c>
       <c r="S35" s="3">
         <v>900</v>
       </c>
       <c r="T35" s="3">
+        <v>900</v>
+      </c>
+      <c r="U35" s="3">
         <v>800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E41" s="3">
         <v>56600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>74500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>53800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>40400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>32800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2780,25 +2870,28 @@
         <v>4200</v>
       </c>
       <c r="S42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="T42" s="3">
         <v>8400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>9100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>10800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>7700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,76 +3242,82 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="E48" s="3">
         <v>5400</v>
       </c>
       <c r="F48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G48" s="3">
         <v>5500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5400</v>
       </c>
       <c r="H48" s="3">
         <v>5400</v>
       </c>
       <c r="I48" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="J48" s="3">
         <v>5300</v>
       </c>
       <c r="K48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L48" s="3">
         <v>5400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>5400</v>
       </c>
       <c r="N48" s="3">
         <v>5400</v>
       </c>
       <c r="O48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="P48" s="3">
         <v>5600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6200</v>
-      </c>
-      <c r="T48" s="3">
-        <v>6300</v>
       </c>
       <c r="U48" s="3">
         <v>6300</v>
       </c>
       <c r="V48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="W48" s="3">
         <v>6400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3252,11 +3363,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
-        <v>1700</v>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T49" s="3">
         <v>1700</v>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>627600</v>
+      </c>
+      <c r="E54" s="3">
         <v>628700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>613300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>591600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>550700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>534500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>494100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>492600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>493900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>488900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>478200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>472900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>471500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>463000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>453500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>439800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>446300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>445200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>448600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>454800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>445800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>449200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3795,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +3935,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3848,17 +3985,17 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
+      <c r="U59" s="3">
+        <v>0</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>5</v>
@@ -3869,8 +4006,11 @@
       <c r="X59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4052,14 +4198,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U62" s="3">
         <v>200</v>
@@ -4068,13 +4214,16 @@
         <v>200</v>
       </c>
       <c r="W62" s="3">
+        <v>200</v>
+      </c>
+      <c r="X62" s="3">
         <v>400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>574600</v>
+      </c>
+      <c r="E66" s="3">
         <v>576700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>560900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>539500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>499900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>484300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>445500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>444200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>446200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>441000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>431900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>428000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>428200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>420500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>411900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>398200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>403700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>403200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>407200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>413800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>404400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>407900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E72" s="3">
         <v>39900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>38600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>37300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>36000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>34600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>33400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>32600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>31400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>29300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>27000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>26000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>25100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>24400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>23200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>22300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>22200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E76" s="3">
         <v>52000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>52100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>50900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>48400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>47700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>46300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>44900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>43200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>42500</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>41600</v>
       </c>
       <c r="R76" s="3">
         <v>41600</v>
       </c>
       <c r="S76" s="3">
+        <v>41600</v>
+      </c>
+      <c r="T76" s="3">
         <v>42600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>42000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>41400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>41000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>41400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,107 +5240,113 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>1600</v>
       </c>
       <c r="L81" s="3">
         <v>1600</v>
@@ -5163,37 +5358,40 @@
         <v>1600</v>
       </c>
       <c r="O81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1000</v>
-      </c>
-      <c r="R81" s="3">
-        <v>900</v>
       </c>
       <c r="S81" s="3">
         <v>900</v>
       </c>
       <c r="T81" s="3">
+        <v>900</v>
+      </c>
+      <c r="U81" s="3">
         <v>800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5265,11 +5464,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
-        <v>200</v>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5673,29 +5890,32 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5767,29 +5988,32 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5971,29 +6201,32 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-2700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-7600</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6069,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T96" s="3">
         <v>-200</v>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6337,29 +6583,32 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>8700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6473,25 +6725,28 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>7900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>WAYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,192 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F8" s="3">
         <v>5600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>5000</v>
       </c>
       <c r="J8" s="3">
         <v>5100</v>
       </c>
       <c r="K8" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="L8" s="3">
         <v>5100</v>
       </c>
       <c r="M8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="O8" s="3">
         <v>5000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>4200</v>
-      </c>
-      <c r="S8" s="3">
-        <v>4200</v>
       </c>
       <c r="T8" s="3">
         <v>4200</v>
       </c>
       <c r="U8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="V8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="W8" s="3">
         <v>4100</v>
-      </c>
-      <c r="V8" s="3">
-        <v>4000</v>
-      </c>
-      <c r="W8" s="3">
-        <v>3900</v>
       </c>
       <c r="X8" s="3">
         <v>4000</v>
       </c>
       <c r="Y8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AA8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,58 +1364,60 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F17" s="3">
         <v>800</v>
       </c>
       <c r="G17" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
+        <v>700</v>
+      </c>
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
+        <v>800</v>
+      </c>
+      <c r="L17" s="3">
         <v>900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1100</v>
       </c>
       <c r="M17" s="3">
         <v>1000</v>
       </c>
       <c r="N17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P17" s="3">
         <v>900</v>
-      </c>
-      <c r="O17" s="3">
-        <v>800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>700</v>
       </c>
       <c r="Q17" s="3">
         <v>800</v>
       </c>
       <c r="R17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="S17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T17" s="3">
         <v>600</v>
@@ -1373,19 +1426,25 @@
         <v>600</v>
       </c>
       <c r="V17" s="3">
+        <v>600</v>
+      </c>
+      <c r="W17" s="3">
+        <v>600</v>
+      </c>
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,46 +1452,46 @@
         <v>4800</v>
       </c>
       <c r="E18" s="3">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="F18" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="G18" s="3">
         <v>4500</v>
       </c>
       <c r="H18" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J18" s="3">
         <v>4300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>3900</v>
-      </c>
-      <c r="O18" s="3">
-        <v>3900</v>
       </c>
       <c r="P18" s="3">
         <v>3900</v>
       </c>
       <c r="Q18" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="R18" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="S18" s="3">
         <v>3600</v>
@@ -1441,22 +1500,28 @@
         <v>3600</v>
       </c>
       <c r="U18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="V18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W18" s="3">
         <v>3500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>3500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>3200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>3300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,37 +1547,39 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-2200</v>
       </c>
       <c r="G20" s="3">
         <v>-2300</v>
       </c>
       <c r="H20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-2000</v>
       </c>
       <c r="M20" s="3">
         <v>-2000</v>
@@ -1524,37 +1591,43 @@
         <v>-2000</v>
       </c>
       <c r="P20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-2200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-2300</v>
       </c>
       <c r="T20" s="3">
         <v>-2400</v>
       </c>
       <c r="U20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="W20" s="3">
         <v>-2500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-2700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-2800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1606,26 +1679,32 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>1400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,40 +1774,46 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E23" s="3">
         <v>2200</v>
       </c>
       <c r="F23" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G23" s="3">
         <v>2200</v>
       </c>
       <c r="H23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J23" s="3">
         <v>2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1900</v>
       </c>
       <c r="N23" s="3">
         <v>1900</v>
@@ -1737,108 +1822,120 @@
         <v>1900</v>
       </c>
       <c r="P23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R23" s="3">
         <v>1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1300</v>
       </c>
       <c r="T23" s="3">
         <v>1200</v>
       </c>
       <c r="U23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W23" s="3">
         <v>1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
         <v>400</v>
       </c>
       <c r="F24" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G24" s="3">
         <v>400</v>
       </c>
       <c r="H24" s="3">
+        <v>500</v>
+      </c>
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>400</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>400</v>
       </c>
       <c r="O24" s="3">
+        <v>300</v>
+      </c>
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
+        <v>400</v>
+      </c>
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
-      </c>
-      <c r="V24" s="3">
-        <v>200</v>
-      </c>
-      <c r="W24" s="3">
-        <v>100</v>
       </c>
       <c r="X24" s="3">
         <v>200</v>
       </c>
       <c r="Y24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,19 +2005,25 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E26" s="3">
         <v>1800</v>
       </c>
       <c r="F26" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G26" s="3">
         <v>1800</v>
@@ -1929,19 +2032,19 @@
         <v>1900</v>
       </c>
       <c r="I26" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J26" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="K26" s="3">
         <v>1700</v>
       </c>
       <c r="L26" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M26" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="N26" s="3">
         <v>1600</v>
@@ -1950,48 +2053,54 @@
         <v>1600</v>
       </c>
       <c r="P26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R26" s="3">
         <v>1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>800</v>
-      </c>
-      <c r="V26" s="3">
-        <v>600</v>
-      </c>
-      <c r="W26" s="3">
-        <v>300</v>
       </c>
       <c r="X26" s="3">
         <v>600</v>
       </c>
       <c r="Y26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E27" s="3">
         <v>1800</v>
       </c>
       <c r="F27" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G27" s="3">
         <v>1800</v>
@@ -2000,19 +2109,19 @@
         <v>1900</v>
       </c>
       <c r="I27" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J27" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="K27" s="3">
         <v>1700</v>
       </c>
       <c r="L27" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M27" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="N27" s="3">
         <v>1600</v>
@@ -2021,37 +2130,43 @@
         <v>1600</v>
       </c>
       <c r="P27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R27" s="3">
         <v>1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>800</v>
-      </c>
-      <c r="V27" s="3">
-        <v>600</v>
-      </c>
-      <c r="W27" s="3">
-        <v>300</v>
       </c>
       <c r="X27" s="3">
         <v>600</v>
       </c>
       <c r="Y27" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2153,11 +2274,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2171,14 +2292,14 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
@@ -2192,8 +2313,14 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,37 +2467,43 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F32" s="3">
         <v>2400</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2200</v>
       </c>
       <c r="G32" s="3">
         <v>2300</v>
       </c>
       <c r="H32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J32" s="3">
         <v>1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>2000</v>
       </c>
       <c r="M32" s="3">
         <v>2000</v>
@@ -2376,48 +2515,54 @@
         <v>2000</v>
       </c>
       <c r="P32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R32" s="3">
         <v>2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>2200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>2400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>2300</v>
       </c>
       <c r="T32" s="3">
         <v>2400</v>
       </c>
       <c r="U32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W32" s="3">
         <v>2500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>2700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>2800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>2500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E33" s="3">
         <v>1800</v>
       </c>
       <c r="F33" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G33" s="3">
         <v>1800</v>
@@ -2426,19 +2571,19 @@
         <v>1900</v>
       </c>
       <c r="I33" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J33" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="K33" s="3">
         <v>1700</v>
       </c>
       <c r="L33" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M33" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="N33" s="3">
         <v>1600</v>
@@ -2447,37 +2592,43 @@
         <v>1600</v>
       </c>
       <c r="P33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R33" s="3">
         <v>1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>800</v>
-      </c>
-      <c r="V33" s="3">
-        <v>600</v>
-      </c>
-      <c r="W33" s="3">
-        <v>300</v>
       </c>
       <c r="X33" s="3">
         <v>600</v>
       </c>
       <c r="Y33" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,19 +2698,25 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E35" s="3">
         <v>1800</v>
       </c>
       <c r="F35" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G35" s="3">
         <v>1800</v>
@@ -2568,19 +2725,19 @@
         <v>1900</v>
       </c>
       <c r="I35" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J35" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="K35" s="3">
         <v>1700</v>
       </c>
       <c r="L35" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M35" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="N35" s="3">
         <v>1600</v>
@@ -2589,113 +2746,125 @@
         <v>1600</v>
       </c>
       <c r="P35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R35" s="3">
         <v>1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>800</v>
-      </c>
-      <c r="V35" s="3">
-        <v>600</v>
-      </c>
-      <c r="W35" s="3">
-        <v>300</v>
       </c>
       <c r="X35" s="3">
         <v>600</v>
       </c>
       <c r="Y35" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>40700</v>
+      </c>
+      <c r="F41" s="3">
         <v>46300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>56600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>52800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>74500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>53800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>40400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>32800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>30800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>13300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>15700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>13100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>11200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>14600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>8500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>11200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>6000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>3400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>6400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>10100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>5400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2828,7 +3007,7 @@
         <v>4200</v>
       </c>
       <c r="E42" s="3">
-        <v>4200</v>
+        <v>7900</v>
       </c>
       <c r="F42" s="3">
         <v>4200</v>
@@ -2873,25 +3052,31 @@
         <v>4200</v>
       </c>
       <c r="T42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="U42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="V42" s="3">
         <v>8400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>8900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>9100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>10800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>7700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3300,14 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3377,14 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,102 +3454,114 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F48" s="3">
         <v>5300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5500</v>
       </c>
       <c r="H48" s="3">
         <v>5400</v>
       </c>
       <c r="I48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J48" s="3">
         <v>5400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L48" s="3">
         <v>5300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>5400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>5600</v>
       </c>
       <c r="N48" s="3">
         <v>5400</v>
       </c>
       <c r="O48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="P48" s="3">
         <v>5400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="R48" s="3">
         <v>5600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>5800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>6000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>6100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>6200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>6300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>6300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>6400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>6600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>1700</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3366,14 +3587,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
+      <c r="S49" s="3">
+        <v>0</v>
       </c>
       <c r="T49" s="3">
-        <v>1700</v>
-      </c>
-      <c r="U49" s="3">
-        <v>1700</v>
+        <v>0</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V49" s="3">
         <v>1700</v>
@@ -3387,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>652700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>636000</v>
+      </c>
+      <c r="F54" s="3">
         <v>627600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>628700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>613300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>591600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>550700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>534500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>494100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>492600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>493900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>488900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>478200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>472900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>471500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>463000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>453500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>439800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>446300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>445200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>448600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>454800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>445800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>449200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +4055,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3805,70 +4066,76 @@
         <v>4900</v>
       </c>
       <c r="E57" s="3">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="F57" s="3">
         <v>4900</v>
       </c>
       <c r="G57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I57" s="3">
         <v>5800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>4700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>6200</v>
       </c>
       <c r="L57" s="3">
         <v>4700</v>
       </c>
       <c r="M57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O57" s="3">
         <v>3800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>3700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3900</v>
-      </c>
-      <c r="V57" s="3">
-        <v>3500</v>
-      </c>
-      <c r="W57" s="3">
-        <v>4600</v>
       </c>
       <c r="X57" s="3">
         <v>3500</v>
       </c>
       <c r="Y57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AA57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,8 +4205,14 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3988,20 +4261,20 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
+      <c r="W59" s="3">
+        <v>0</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>5</v>
@@ -4009,8 +4282,14 @@
       <c r="Y59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,8 +4359,14 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4201,29 +4492,35 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3">
-        <v>200</v>
+      <c r="U62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W62" s="3">
         <v>200</v>
       </c>
       <c r="X62" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z62" s="3">
         <v>400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>602600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>582400</v>
+      </c>
+      <c r="F66" s="3">
         <v>574600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>576700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>560900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>539500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>499900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>484300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>445500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>444200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>446200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>441000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>431900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>428000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>428200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>420500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>411900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>398200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>403700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>403200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>407200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>413800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>404400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>407900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>42700</v>
+      </c>
+      <c r="F72" s="3">
         <v>41400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>39900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>38600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>37300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>36000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>34600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>33400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>32600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>31400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>30300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>29300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>28300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>27000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>26000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>25100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>24400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>23800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>23200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>22600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>22300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>22200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>53600</v>
+      </c>
+      <c r="F76" s="3">
         <v>53000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>52000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>52400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>52100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>50900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>50200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>48600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>48400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>47700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>48000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>46300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>44900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>43200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>42500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>41600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>41600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>42600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>42000</v>
-      </c>
-      <c r="V76" s="3">
-        <v>41400</v>
-      </c>
-      <c r="W76" s="3">
-        <v>41000</v>
       </c>
       <c r="X76" s="3">
         <v>41400</v>
       </c>
       <c r="Y76" s="3">
+        <v>41000</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>41400</v>
+      </c>
+      <c r="AA76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,95 +5620,107 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E81" s="3">
         <v>1800</v>
       </c>
       <c r="F81" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G81" s="3">
         <v>1800</v>
@@ -5340,19 +5729,19 @@
         <v>1900</v>
       </c>
       <c r="I81" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J81" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="K81" s="3">
         <v>1700</v>
       </c>
       <c r="L81" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M81" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="N81" s="3">
         <v>1600</v>
@@ -5361,37 +5750,43 @@
         <v>1600</v>
       </c>
       <c r="P81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R81" s="3">
         <v>1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>800</v>
-      </c>
-      <c r="V81" s="3">
-        <v>600</v>
-      </c>
-      <c r="W81" s="3">
-        <v>300</v>
       </c>
       <c r="X81" s="3">
         <v>600</v>
       </c>
       <c r="Y81" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5467,14 +5864,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>200</v>
-      </c>
-      <c r="U83" s="3">
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V83" s="3">
         <v>200</v>
@@ -5488,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6270,14 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5893,29 +6326,35 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
+      <c r="S89" s="3">
+        <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>1100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>2300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>1100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5991,29 +6432,35 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6204,29 +6663,35 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-2700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-3100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-7600</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6306,10 +6773,10 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="U96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V96" s="3">
         <v>-200</v>
@@ -6323,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6586,29 +7077,35 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-4700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-6200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>8700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +7175,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6728,25 +7231,31 @@
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>-1100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-3200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-5500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>7900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>WAYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,148 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="E8" s="3">
         <v>5500</v>
       </c>
       <c r="F8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G8" s="3">
         <v>5600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5400</v>
       </c>
       <c r="H8" s="3">
         <v>5400</v>
       </c>
       <c r="I8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J8" s="3">
         <v>5200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5000</v>
-      </c>
-      <c r="L8" s="3">
-        <v>5100</v>
       </c>
       <c r="M8" s="3">
         <v>5100</v>
@@ -811,22 +815,22 @@
         <v>5100</v>
       </c>
       <c r="O8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="P8" s="3">
         <v>5000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4400</v>
-      </c>
-      <c r="T8" s="3">
-        <v>4200</v>
       </c>
       <c r="U8" s="3">
         <v>4200</v>
@@ -835,22 +839,25 @@
         <v>4200</v>
       </c>
       <c r="W8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="X8" s="3">
         <v>4100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,61 +1392,62 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
         <v>700</v>
       </c>
       <c r="F17" s="3">
+        <v>700</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>800</v>
       </c>
       <c r="K17" s="3">
         <v>800</v>
       </c>
       <c r="L17" s="3">
+        <v>800</v>
+      </c>
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
-      </c>
-      <c r="T17" s="3">
-        <v>600</v>
       </c>
       <c r="U17" s="3">
         <v>600</v>
@@ -1432,24 +1459,27 @@
         <v>600</v>
       </c>
       <c r="X17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y17" s="3">
         <v>500</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>700</v>
       </c>
       <c r="Z17" s="3">
         <v>700</v>
       </c>
       <c r="AA17" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="E18" s="3">
         <v>4800</v>
@@ -1458,34 +1488,34 @@
         <v>4800</v>
       </c>
       <c r="G18" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H18" s="3">
         <v>4500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>4200</v>
       </c>
       <c r="L18" s="3">
         <v>4200</v>
       </c>
       <c r="M18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N18" s="3">
         <v>4100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>4000</v>
       </c>
       <c r="O18" s="3">
         <v>4000</v>
       </c>
       <c r="P18" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="Q18" s="3">
         <v>3900</v>
@@ -1494,7 +1524,7 @@
         <v>3900</v>
       </c>
       <c r="S18" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="T18" s="3">
         <v>3600</v>
@@ -1506,22 +1536,25 @@
         <v>3600</v>
       </c>
       <c r="W18" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="X18" s="3">
         <v>3500</v>
       </c>
       <c r="Y18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Z18" s="3">
         <v>3200</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>3300</v>
       </c>
       <c r="AA18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,40 +1582,41 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-2000</v>
       </c>
       <c r="N20" s="3">
         <v>-2000</v>
@@ -1597,37 +1631,40 @@
         <v>-2000</v>
       </c>
       <c r="R20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="S20" s="3">
         <v>-2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1685,26 +1722,29 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>1400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,8 +1820,11 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1789,34 +1832,34 @@
         <v>2500</v>
       </c>
       <c r="E23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F23" s="3">
         <v>2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1900</v>
       </c>
       <c r="O23" s="3">
         <v>1900</v>
@@ -1828,37 +1871,40 @@
         <v>1900</v>
       </c>
       <c r="R23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S23" s="3">
         <v>1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1866,7 +1912,7 @@
         <v>500</v>
       </c>
       <c r="E24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F24" s="3">
         <v>400</v>
@@ -1875,67 +1921,70 @@
         <v>400</v>
       </c>
       <c r="H24" s="3">
+        <v>400</v>
+      </c>
+      <c r="I24" s="3">
         <v>500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>400</v>
       </c>
       <c r="J24" s="3">
         <v>400</v>
       </c>
       <c r="K24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
       </c>
       <c r="M24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>400</v>
       </c>
       <c r="O24" s="3">
+        <v>400</v>
+      </c>
+      <c r="P24" s="3">
         <v>300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>400</v>
       </c>
       <c r="Q24" s="3">
         <v>400</v>
       </c>
       <c r="R24" s="3">
+        <v>400</v>
+      </c>
+      <c r="S24" s="3">
         <v>300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>200</v>
       </c>
       <c r="T24" s="3">
         <v>200</v>
       </c>
       <c r="U24" s="3">
+        <v>200</v>
+      </c>
+      <c r="V24" s="3">
         <v>400</v>
-      </c>
-      <c r="V24" s="3">
-        <v>300</v>
       </c>
       <c r="W24" s="3">
         <v>300</v>
       </c>
       <c r="X24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>100</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>200</v>
       </c>
       <c r="AA24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,43 +2060,46 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1600</v>
       </c>
       <c r="O26" s="3">
         <v>1600</v>
@@ -2059,72 +2111,75 @@
         <v>1600</v>
       </c>
       <c r="R26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S26" s="3">
         <v>1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1000</v>
-      </c>
-      <c r="U26" s="3">
-        <v>900</v>
       </c>
       <c r="V26" s="3">
         <v>900</v>
       </c>
       <c r="W26" s="3">
+        <v>900</v>
+      </c>
+      <c r="X26" s="3">
         <v>800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1600</v>
       </c>
       <c r="O27" s="3">
         <v>1600</v>
@@ -2136,37 +2191,40 @@
         <v>1600</v>
       </c>
       <c r="R27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S27" s="3">
         <v>1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1000</v>
-      </c>
-      <c r="U27" s="3">
-        <v>900</v>
       </c>
       <c r="V27" s="3">
         <v>900</v>
       </c>
       <c r="W27" s="3">
+        <v>900</v>
+      </c>
+      <c r="X27" s="3">
         <v>800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2280,8 +2341,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2298,11 +2359,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,40 +2540,43 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>2000</v>
       </c>
       <c r="N32" s="3">
         <v>2000</v>
@@ -2521,72 +2591,75 @@
         <v>2000</v>
       </c>
       <c r="R32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S32" s="3">
         <v>2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>1600</v>
       </c>
       <c r="O33" s="3">
         <v>1600</v>
@@ -2598,37 +2671,40 @@
         <v>1600</v>
       </c>
       <c r="R33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S33" s="3">
         <v>1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1000</v>
-      </c>
-      <c r="U33" s="3">
-        <v>900</v>
       </c>
       <c r="V33" s="3">
         <v>900</v>
       </c>
       <c r="W33" s="3">
+        <v>900</v>
+      </c>
+      <c r="X33" s="3">
         <v>800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,43 +2780,46 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>1600</v>
       </c>
       <c r="O35" s="3">
         <v>1600</v>
@@ -2752,119 +2831,125 @@
         <v>1600</v>
       </c>
       <c r="R35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S35" s="3">
         <v>1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1000</v>
-      </c>
-      <c r="U35" s="3">
-        <v>900</v>
       </c>
       <c r="V35" s="3">
         <v>900</v>
       </c>
       <c r="W35" s="3">
+        <v>900</v>
+      </c>
+      <c r="X35" s="3">
         <v>800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E41" s="3">
         <v>38900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>46300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>56600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>52800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>74500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>53800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>40400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>32800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>30800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>10100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3007,10 +3097,10 @@
         <v>4200</v>
       </c>
       <c r="E42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F42" s="3">
         <v>7900</v>
-      </c>
-      <c r="F42" s="3">
-        <v>4200</v>
       </c>
       <c r="G42" s="3">
         <v>4200</v>
@@ -3058,25 +3148,28 @@
         <v>4200</v>
       </c>
       <c r="V42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="W42" s="3">
         <v>8400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>8900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>9100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>10800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>7700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3469,88 +3577,91 @@
         <v>5100</v>
       </c>
       <c r="E48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F48" s="3">
         <v>5200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5400</v>
       </c>
       <c r="H48" s="3">
         <v>5400</v>
       </c>
       <c r="I48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J48" s="3">
         <v>5500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5400</v>
       </c>
       <c r="K48" s="3">
         <v>5400</v>
       </c>
       <c r="L48" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="M48" s="3">
         <v>5300</v>
       </c>
       <c r="N48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O48" s="3">
         <v>5400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5600</v>
-      </c>
-      <c r="P48" s="3">
-        <v>5400</v>
       </c>
       <c r="Q48" s="3">
         <v>5400</v>
       </c>
       <c r="R48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="S48" s="3">
         <v>5600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6200</v>
-      </c>
-      <c r="W48" s="3">
-        <v>6300</v>
       </c>
       <c r="X48" s="3">
         <v>6300</v>
       </c>
       <c r="Y48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="Z48" s="3">
         <v>6400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>6600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
         <v>1700</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3563,8 +3674,8 @@
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3593,11 +3704,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
-        <v>1700</v>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W49" s="3">
         <v>1700</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>654200</v>
+      </c>
+      <c r="E54" s="3">
         <v>652700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>636000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>627600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>628700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>613300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>591600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>550700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>534500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>494100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>492600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>493900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>488900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>478200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>472900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>471500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>463000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>453500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>439800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>446300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>445200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>448600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>454800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>445800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>449200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4187,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4267,17 +4404,17 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
+      <c r="X59" s="3">
+        <v>0</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>5</v>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4498,14 +4644,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X62" s="3">
         <v>200</v>
@@ -4514,13 +4660,16 @@
         <v>200</v>
       </c>
       <c r="Z62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA62" s="3">
         <v>400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>612000</v>
+      </c>
+      <c r="E66" s="3">
         <v>602600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>582400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>574600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>576700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>560900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>539500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>499900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>484300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>445500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>444200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>446200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>441000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>431900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>428000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>428200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>420500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>411900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>398200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>403700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>403200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>407200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>413800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>404400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>407900</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E72" s="3">
         <v>44200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>42700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>41400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>39900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>38600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>37300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>36000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>34600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>32600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>31400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>30300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>29300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>28300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>27000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>26000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>25100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>24400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>23800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>23200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>22600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>22300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>22200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E76" s="3">
         <v>50000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>53600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>53000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>52000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>52400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>52100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>50900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>47700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>48000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>46300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>44900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>43200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>42500</v>
-      </c>
-      <c r="T76" s="3">
-        <v>41600</v>
       </c>
       <c r="U76" s="3">
         <v>41600</v>
       </c>
       <c r="V76" s="3">
+        <v>41600</v>
+      </c>
+      <c r="W76" s="3">
         <v>42600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>42000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>41400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>41000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>41400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,125 +5815,131 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>1600</v>
       </c>
       <c r="O81" s="3">
         <v>1600</v>
@@ -5756,37 +5951,40 @@
         <v>1600</v>
       </c>
       <c r="R81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S81" s="3">
         <v>1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1000</v>
-      </c>
-      <c r="U81" s="3">
-        <v>900</v>
       </c>
       <c r="V81" s="3">
         <v>900</v>
       </c>
       <c r="W81" s="3">
+        <v>900</v>
+      </c>
+      <c r="X81" s="3">
         <v>800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5870,11 +6069,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
-        <v>200</v>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W83" s="3">
         <v>200</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6332,29 +6549,32 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>1100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6438,29 +6659,32 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6669,29 +6899,32 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-2700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-7600</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6779,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W96" s="3">
         <v>-200</v>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7083,29 +7329,32 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>8700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7237,25 +7489,28 @@
       <c r="T102" s="3">
         <v>0</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>-1100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>7900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>WAYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,155 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E8" s="3">
         <v>5900</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5500</v>
       </c>
       <c r="F8" s="3">
         <v>5500</v>
       </c>
       <c r="G8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H8" s="3">
         <v>5600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5400</v>
       </c>
       <c r="I8" s="3">
         <v>5400</v>
       </c>
       <c r="J8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K8" s="3">
         <v>5200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5000</v>
-      </c>
-      <c r="M8" s="3">
-        <v>5100</v>
       </c>
       <c r="N8" s="3">
         <v>5100</v>
@@ -818,22 +822,22 @@
         <v>5100</v>
       </c>
       <c r="P8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>5000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4400</v>
-      </c>
-      <c r="U8" s="3">
-        <v>4200</v>
       </c>
       <c r="V8" s="3">
         <v>4200</v>
@@ -842,22 +846,25 @@
         <v>4200</v>
       </c>
       <c r="X8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Y8" s="3">
         <v>4100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,64 +1419,65 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
-      </c>
-      <c r="E17" s="3">
-        <v>700</v>
       </c>
       <c r="F17" s="3">
         <v>700</v>
       </c>
       <c r="G17" s="3">
+        <v>700</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
       </c>
       <c r="M17" s="3">
+        <v>800</v>
+      </c>
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
-      </c>
-      <c r="U17" s="3">
-        <v>600</v>
       </c>
       <c r="V17" s="3">
         <v>600</v>
@@ -1462,27 +1489,30 @@
         <v>600</v>
       </c>
       <c r="Y17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z17" s="3">
         <v>500</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>700</v>
       </c>
       <c r="AA17" s="3">
         <v>700</v>
       </c>
       <c r="AB17" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E18" s="3">
         <v>5100</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4800</v>
       </c>
       <c r="F18" s="3">
         <v>4800</v>
@@ -1491,34 +1521,34 @@
         <v>4800</v>
       </c>
       <c r="H18" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I18" s="3">
         <v>4500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>4200</v>
       </c>
       <c r="M18" s="3">
         <v>4200</v>
       </c>
       <c r="N18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O18" s="3">
         <v>4100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>4000</v>
       </c>
       <c r="P18" s="3">
         <v>4000</v>
       </c>
       <c r="Q18" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="R18" s="3">
         <v>3900</v>
@@ -1527,7 +1557,7 @@
         <v>3900</v>
       </c>
       <c r="T18" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="U18" s="3">
         <v>3600</v>
@@ -1539,22 +1569,25 @@
         <v>3600</v>
       </c>
       <c r="X18" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="Y18" s="3">
         <v>3500</v>
       </c>
       <c r="Z18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AA18" s="3">
         <v>3200</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>3300</v>
       </c>
       <c r="AB18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,43 +1616,44 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-2000</v>
       </c>
       <c r="O20" s="3">
         <v>-2000</v>
@@ -1634,37 +1668,40 @@
         <v>-2000</v>
       </c>
       <c r="S20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T20" s="3">
         <v>-2100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1725,26 +1762,29 @@
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>1400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,46 +1863,49 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2500</v>
+        <v>3100</v>
       </c>
       <c r="E23" s="3">
         <v>2500</v>
       </c>
       <c r="F23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G23" s="3">
         <v>2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1900</v>
       </c>
       <c r="P23" s="3">
         <v>1900</v>
@@ -1874,48 +1917,51 @@
         <v>1900</v>
       </c>
       <c r="S23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T23" s="3">
         <v>1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
         <v>500</v>
       </c>
       <c r="F24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G24" s="3">
         <v>400</v>
@@ -1924,67 +1970,70 @@
         <v>400</v>
       </c>
       <c r="I24" s="3">
+        <v>400</v>
+      </c>
+      <c r="J24" s="3">
         <v>500</v>
-      </c>
-      <c r="J24" s="3">
-        <v>400</v>
       </c>
       <c r="K24" s="3">
         <v>400</v>
       </c>
       <c r="L24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
       <c r="N24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O24" s="3">
         <v>400</v>
       </c>
       <c r="P24" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q24" s="3">
         <v>300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>400</v>
       </c>
       <c r="R24" s="3">
         <v>400</v>
       </c>
       <c r="S24" s="3">
+        <v>400</v>
+      </c>
+      <c r="T24" s="3">
         <v>300</v>
-      </c>
-      <c r="T24" s="3">
-        <v>200</v>
       </c>
       <c r="U24" s="3">
         <v>200</v>
       </c>
       <c r="V24" s="3">
+        <v>200</v>
+      </c>
+      <c r="W24" s="3">
         <v>400</v>
-      </c>
-      <c r="W24" s="3">
-        <v>300</v>
       </c>
       <c r="X24" s="3">
         <v>300</v>
       </c>
       <c r="Y24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z24" s="3">
         <v>200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>100</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>200</v>
       </c>
       <c r="AB24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,46 +2112,49 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1700</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1600</v>
       </c>
       <c r="P26" s="3">
         <v>1600</v>
@@ -2114,75 +2166,78 @@
         <v>1600</v>
       </c>
       <c r="S26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T26" s="3">
         <v>1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1000</v>
-      </c>
-      <c r="V26" s="3">
-        <v>900</v>
       </c>
       <c r="W26" s="3">
         <v>900</v>
       </c>
       <c r="X26" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y26" s="3">
         <v>800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1700</v>
-      </c>
-      <c r="O27" s="3">
-        <v>1600</v>
       </c>
       <c r="P27" s="3">
         <v>1600</v>
@@ -2194,37 +2249,40 @@
         <v>1600</v>
       </c>
       <c r="S27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T27" s="3">
         <v>1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1000</v>
-      </c>
-      <c r="V27" s="3">
-        <v>900</v>
       </c>
       <c r="W27" s="3">
         <v>900</v>
       </c>
       <c r="X27" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y27" s="3">
         <v>800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2344,8 +2405,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2362,11 +2423,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,43 +2610,46 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2600</v>
-      </c>
-      <c r="N32" s="3">
-        <v>2000</v>
       </c>
       <c r="O32" s="3">
         <v>2000</v>
@@ -2594,75 +2664,78 @@
         <v>2000</v>
       </c>
       <c r="S32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T32" s="3">
         <v>2100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1700</v>
-      </c>
-      <c r="O33" s="3">
-        <v>1600</v>
       </c>
       <c r="P33" s="3">
         <v>1600</v>
@@ -2674,37 +2747,40 @@
         <v>1600</v>
       </c>
       <c r="S33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T33" s="3">
         <v>1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1000</v>
-      </c>
-      <c r="V33" s="3">
-        <v>900</v>
       </c>
       <c r="W33" s="3">
         <v>900</v>
       </c>
       <c r="X33" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y33" s="3">
         <v>800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,46 +2859,49 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1700</v>
-      </c>
-      <c r="O35" s="3">
-        <v>1600</v>
       </c>
       <c r="P35" s="3">
         <v>1600</v>
@@ -2834,122 +2913,128 @@
         <v>1600</v>
       </c>
       <c r="S35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T35" s="3">
         <v>1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1000</v>
-      </c>
-      <c r="V35" s="3">
-        <v>900</v>
       </c>
       <c r="W35" s="3">
         <v>900</v>
       </c>
       <c r="X35" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y35" s="3">
         <v>800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,102 +3094,106 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E41" s="3">
         <v>9200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>38900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>46300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>56600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>52800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>74500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>53800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>40400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>32800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>30800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>10100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4200</v>
+        <v>3300</v>
       </c>
       <c r="E42" s="3">
         <v>4200</v>
       </c>
       <c r="F42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G42" s="3">
         <v>7900</v>
-      </c>
-      <c r="G42" s="3">
-        <v>4200</v>
       </c>
       <c r="H42" s="3">
         <v>4200</v>
@@ -3151,25 +3241,28 @@
         <v>4200</v>
       </c>
       <c r="W42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="X42" s="3">
         <v>8400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>8900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>9100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>10800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>7700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3507,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,8 +3590,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,88 +3673,94 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="E48" s="3">
         <v>5100</v>
       </c>
       <c r="F48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G48" s="3">
         <v>5200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5400</v>
       </c>
       <c r="I48" s="3">
         <v>5400</v>
       </c>
       <c r="J48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K48" s="3">
         <v>5500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>5400</v>
       </c>
       <c r="L48" s="3">
         <v>5400</v>
       </c>
       <c r="M48" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="N48" s="3">
         <v>5300</v>
       </c>
       <c r="O48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="P48" s="3">
         <v>5400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5600</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>5400</v>
       </c>
       <c r="R48" s="3">
         <v>5400</v>
       </c>
       <c r="S48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="T48" s="3">
         <v>5600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6200</v>
-      </c>
-      <c r="X48" s="3">
-        <v>6300</v>
       </c>
       <c r="Y48" s="3">
         <v>6300</v>
       </c>
       <c r="Z48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="AA48" s="3">
         <v>6400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3659,12 +3770,12 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
         <v>1700</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3677,8 +3788,8 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -3707,11 +3818,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
-        <v>1700</v>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X49" s="3">
         <v>1700</v>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>687300</v>
+      </c>
+      <c r="E54" s="3">
         <v>654200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>652700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>636000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>627600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>628700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>613300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>591600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>550700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>534500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>494100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>492600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>493900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>488900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>478200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>472900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>471500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>463000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>453500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>439800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>446300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>445200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>448600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>454800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>445800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>449200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,88 +4318,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,8 +4482,11 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4407,17 +4544,17 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>100</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
+      <c r="Y59" s="3">
+        <v>0</v>
       </c>
       <c r="Z59" s="3" t="s">
         <v>5</v>
@@ -4428,8 +4565,11 @@
       <c r="AB59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4647,14 +4793,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="3">
         <v>200</v>
@@ -4663,13 +4809,16 @@
         <v>200</v>
       </c>
       <c r="AA62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB62" s="3">
         <v>400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>645800</v>
+      </c>
+      <c r="E66" s="3">
         <v>612000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>602600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>582400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>574600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>576700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>560900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>539500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>499900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>484300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>445500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>444200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>446200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>441000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>431900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>428000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>428200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>420500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>411900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>398200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>403700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>403200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>407200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>413800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>404400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>407900</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E72" s="3">
         <v>45700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>44200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>42700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>41400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>39900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>38600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>37300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>36000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>34600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>33400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>32600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>31400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>30300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>29300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>28300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>27000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>26000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>25100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>24400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>23800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>23200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>22600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>22300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>22200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E76" s="3">
         <v>42300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>53600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>53000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>52000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>52400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>52100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>48400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>47700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>48000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>46300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>44900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>43200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>42500</v>
-      </c>
-      <c r="U76" s="3">
-        <v>41600</v>
       </c>
       <c r="V76" s="3">
         <v>41600</v>
       </c>
       <c r="W76" s="3">
+        <v>41600</v>
+      </c>
+      <c r="X76" s="3">
         <v>42600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>42000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>41400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>41000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>41400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,131 +6007,137 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1700</v>
-      </c>
-      <c r="O81" s="3">
-        <v>1600</v>
       </c>
       <c r="P81" s="3">
         <v>1600</v>
@@ -5954,37 +6149,40 @@
         <v>1600</v>
       </c>
       <c r="S81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T81" s="3">
         <v>1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1000</v>
-      </c>
-      <c r="V81" s="3">
-        <v>900</v>
       </c>
       <c r="W81" s="3">
         <v>900</v>
       </c>
       <c r="X81" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y81" s="3">
         <v>800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6072,11 +6271,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
-        <v>200</v>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X83" s="3">
         <v>200</v>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6707,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6552,29 +6769,32 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>1100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6662,29 +6883,32 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7070,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6902,29 +7132,32 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-2700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-7600</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7016,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="X96" s="3">
         <v>-200</v>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7516,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7332,29 +7578,32 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>8700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7682,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7492,25 +7744,28 @@
       <c r="U102" s="3">
         <v>0</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>-1100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>7900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>WAYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F8" s="3">
         <v>6900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>5100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>5000</v>
       </c>
       <c r="N8" s="3">
         <v>5100</v>
       </c>
       <c r="O8" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="P8" s="3">
         <v>5100</v>
       </c>
       <c r="Q8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="S8" s="3">
         <v>5000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>4400</v>
-      </c>
-      <c r="V8" s="3">
-        <v>4200</v>
-      </c>
-      <c r="W8" s="3">
-        <v>4200</v>
       </c>
       <c r="X8" s="3">
         <v>4200</v>
       </c>
       <c r="Y8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AA8" s="3">
         <v>4100</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>4000</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>3900</v>
       </c>
       <c r="AB8" s="3">
         <v>4000</v>
       </c>
       <c r="AC8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AE8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,70 +1471,72 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>900</v>
       </c>
       <c r="J17" s="3">
         <v>800</v>
       </c>
       <c r="K17" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
       </c>
       <c r="M17" s="3">
+        <v>700</v>
+      </c>
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
+        <v>800</v>
+      </c>
+      <c r="P17" s="3">
         <v>900</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1100</v>
       </c>
       <c r="Q17" s="3">
         <v>1000</v>
       </c>
       <c r="R17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T17" s="3">
         <v>900</v>
-      </c>
-      <c r="S17" s="3">
-        <v>800</v>
-      </c>
-      <c r="T17" s="3">
-        <v>700</v>
       </c>
       <c r="U17" s="3">
         <v>800</v>
       </c>
       <c r="V17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="W17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="X17" s="3">
         <v>600</v>
@@ -1492,78 +1545,84 @@
         <v>600</v>
       </c>
       <c r="Z17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F18" s="3">
         <v>5800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>5100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4800</v>
       </c>
       <c r="H18" s="3">
         <v>4800</v>
       </c>
       <c r="I18" s="3">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="J18" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="K18" s="3">
         <v>4500</v>
       </c>
       <c r="L18" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M18" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N18" s="3">
         <v>4300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>4200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>4100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>4000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>4000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>3900</v>
-      </c>
-      <c r="S18" s="3">
-        <v>3900</v>
       </c>
       <c r="T18" s="3">
         <v>3900</v>
       </c>
       <c r="U18" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="V18" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="W18" s="3">
         <v>3600</v>
@@ -1572,22 +1631,28 @@
         <v>3600</v>
       </c>
       <c r="Y18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="AA18" s="3">
         <v>3500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>3500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>3200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>3300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,49 +1682,51 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-2200</v>
       </c>
       <c r="G20" s="3">
         <v>-2600</v>
       </c>
       <c r="H20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-2200</v>
       </c>
       <c r="K20" s="3">
         <v>-2300</v>
       </c>
       <c r="L20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-2000</v>
       </c>
       <c r="Q20" s="3">
         <v>-2000</v>
@@ -1671,37 +1738,43 @@
         <v>-2000</v>
       </c>
       <c r="T20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="V20" s="3">
         <v>-2100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-2200</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-2300</v>
       </c>
       <c r="X20" s="3">
         <v>-2400</v>
       </c>
       <c r="Y20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1765,26 +1838,32 @@
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>1400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>1000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,52 +1945,58 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F23" s="3">
         <v>3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2400</v>
       </c>
       <c r="I23" s="3">
         <v>2200</v>
       </c>
       <c r="J23" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K23" s="3">
         <v>2200</v>
       </c>
       <c r="L23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N23" s="3">
         <v>2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1900</v>
       </c>
       <c r="R23" s="3">
         <v>1900</v>
@@ -1920,37 +2005,43 @@
         <v>1900</v>
       </c>
       <c r="T23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V23" s="3">
         <v>1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1400</v>
-      </c>
-      <c r="V23" s="3">
-        <v>1200</v>
-      </c>
-      <c r="W23" s="3">
-        <v>1300</v>
       </c>
       <c r="X23" s="3">
         <v>1200</v>
       </c>
       <c r="Y23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA23" s="3">
         <v>1100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1958,82 +2049,88 @@
         <v>600</v>
       </c>
       <c r="E24" s="3">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>600</v>
+      </c>
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>400</v>
       </c>
       <c r="I24" s="3">
         <v>400</v>
       </c>
       <c r="J24" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K24" s="3">
         <v>400</v>
       </c>
       <c r="L24" s="3">
+        <v>500</v>
+      </c>
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
+        <v>400</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
-      </c>
-      <c r="P24" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>300</v>
       </c>
       <c r="R24" s="3">
         <v>400</v>
       </c>
       <c r="S24" s="3">
+        <v>300</v>
+      </c>
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
+        <v>400</v>
+      </c>
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>300</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>100</v>
       </c>
       <c r="AB24" s="3">
         <v>200</v>
       </c>
       <c r="AC24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,31 +2212,37 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F26" s="3">
         <v>2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2000</v>
       </c>
       <c r="I26" s="3">
         <v>1800</v>
       </c>
       <c r="J26" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K26" s="3">
         <v>1800</v>
@@ -2148,19 +2251,19 @@
         <v>1900</v>
       </c>
       <c r="M26" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="N26" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="O26" s="3">
         <v>1700</v>
       </c>
       <c r="P26" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="Q26" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="R26" s="3">
         <v>1600</v>
@@ -2169,60 +2272,66 @@
         <v>1600</v>
       </c>
       <c r="T26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V26" s="3">
         <v>1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>800</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>600</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>300</v>
       </c>
       <c r="AB26" s="3">
         <v>600</v>
       </c>
       <c r="AC26" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F27" s="3">
         <v>2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2000</v>
       </c>
       <c r="I27" s="3">
         <v>1800</v>
       </c>
       <c r="J27" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K27" s="3">
         <v>1800</v>
@@ -2231,19 +2340,19 @@
         <v>1900</v>
       </c>
       <c r="M27" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="N27" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="O27" s="3">
         <v>1700</v>
       </c>
       <c r="P27" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="Q27" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="R27" s="3">
         <v>1600</v>
@@ -2252,37 +2361,43 @@
         <v>1600</v>
       </c>
       <c r="T27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V27" s="3">
         <v>1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>800</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>600</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>300</v>
       </c>
       <c r="AB27" s="3">
         <v>600</v>
       </c>
       <c r="AC27" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2408,11 +2529,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2426,14 +2547,14 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
+      <c r="Y29" s="3">
+        <v>0</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
@@ -2447,8 +2568,14 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,49 +2746,55 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F32" s="3">
         <v>2700</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2200</v>
       </c>
       <c r="G32" s="3">
         <v>2600</v>
       </c>
       <c r="H32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J32" s="3">
         <v>2400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>2200</v>
       </c>
       <c r="K32" s="3">
         <v>2300</v>
       </c>
       <c r="L32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N32" s="3">
         <v>1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>2000</v>
       </c>
       <c r="Q32" s="3">
         <v>2000</v>
@@ -2667,60 +2806,66 @@
         <v>2000</v>
       </c>
       <c r="T32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V32" s="3">
         <v>2100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>2200</v>
-      </c>
-      <c r="V32" s="3">
-        <v>2400</v>
-      </c>
-      <c r="W32" s="3">
-        <v>2300</v>
       </c>
       <c r="X32" s="3">
         <v>2400</v>
       </c>
       <c r="Y32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AA32" s="3">
         <v>2500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>2700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>2800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>2500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2000</v>
       </c>
       <c r="I33" s="3">
         <v>1800</v>
       </c>
       <c r="J33" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K33" s="3">
         <v>1800</v>
@@ -2729,19 +2874,19 @@
         <v>1900</v>
       </c>
       <c r="M33" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="N33" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="O33" s="3">
         <v>1700</v>
       </c>
       <c r="P33" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="Q33" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="R33" s="3">
         <v>1600</v>
@@ -2750,37 +2895,43 @@
         <v>1600</v>
       </c>
       <c r="T33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V33" s="3">
         <v>1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>800</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>600</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>300</v>
       </c>
       <c r="AB33" s="3">
         <v>600</v>
       </c>
       <c r="AC33" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,31 +3013,37 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2000</v>
       </c>
       <c r="I35" s="3">
         <v>1800</v>
       </c>
       <c r="J35" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K35" s="3">
         <v>1800</v>
@@ -2895,19 +3052,19 @@
         <v>1900</v>
       </c>
       <c r="M35" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="N35" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="O35" s="3">
         <v>1700</v>
       </c>
       <c r="P35" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="Q35" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="R35" s="3">
         <v>1600</v>
@@ -2916,125 +3073,137 @@
         <v>1600</v>
       </c>
       <c r="T35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V35" s="3">
         <v>1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>800</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>600</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>300</v>
       </c>
       <c r="AB35" s="3">
         <v>600</v>
       </c>
       <c r="AC35" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,111 +3266,119 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F41" s="3">
         <v>8500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>9200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>38900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>40700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>46300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>56600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>52800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>74500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>53800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>40400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>32800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>30800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>13300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>15700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>13100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>11200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>14600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>8500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>11200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>6000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>2800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>3400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>6400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>10100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>5400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F42" s="3">
         <v>3300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>4200</v>
-      </c>
-      <c r="F42" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G42" s="3">
-        <v>7900</v>
       </c>
       <c r="H42" s="3">
         <v>4200</v>
       </c>
       <c r="I42" s="3">
-        <v>4200</v>
+        <v>7900</v>
       </c>
       <c r="J42" s="3">
         <v>4200</v>
@@ -3244,25 +3423,31 @@
         <v>4200</v>
       </c>
       <c r="X42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Z42" s="3">
         <v>8400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>8900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>9100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>10800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>7700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3529,14 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3618,14 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3707,14 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,8 +3796,14 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,112 +3885,124 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F48" s="3">
         <v>5000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>5500</v>
       </c>
       <c r="L48" s="3">
         <v>5400</v>
       </c>
       <c r="M48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="N48" s="3">
         <v>5400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="P48" s="3">
         <v>5300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5300</v>
-      </c>
-      <c r="P48" s="3">
-        <v>5400</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>5600</v>
       </c>
       <c r="R48" s="3">
         <v>5400</v>
       </c>
       <c r="S48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="T48" s="3">
         <v>5400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="V48" s="3">
         <v>5600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>5800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>6000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>6100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>6200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>6300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>6300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>6400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>6600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
+      <c r="E49" s="3">
+        <v>1700</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
         <v>1700</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3791,11 +4012,11 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3821,14 +4042,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
+      <c r="W49" s="3">
+        <v>0</v>
       </c>
       <c r="X49" s="3">
-        <v>1700</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>1700</v>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z49" s="3">
         <v>1700</v>
@@ -3842,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4091,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>752600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>729800</v>
+      </c>
+      <c r="F54" s="3">
         <v>687300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>654200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>652700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>636000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>627600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>628700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>613300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>591600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>550700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>534500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>494100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>492600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>493900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>488900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>478200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>472900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>471500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>463000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>453500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>439800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>446300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>445200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>448600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>454800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>445800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>449200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,91 +4578,99 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F57" s="3">
         <v>5000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G57" s="3">
-        <v>5500</v>
       </c>
       <c r="H57" s="3">
         <v>4900</v>
       </c>
       <c r="I57" s="3">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="J57" s="3">
         <v>4900</v>
       </c>
       <c r="K57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="M57" s="3">
         <v>5800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>5000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>5100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>4700</v>
-      </c>
-      <c r="O57" s="3">
-        <v>6200</v>
       </c>
       <c r="P57" s="3">
         <v>4700</v>
       </c>
       <c r="Q57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="R57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="S57" s="3">
         <v>3800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>3900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>4800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>3700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>3900</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>3500</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>4600</v>
       </c>
       <c r="AB57" s="3">
         <v>3500</v>
       </c>
       <c r="AC57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AE57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,8 +4752,14 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4547,20 +4820,20 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
+      <c r="W59" s="3">
+        <v>0</v>
       </c>
       <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
         <v>100</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA59" s="3" t="s">
-        <v>5</v>
+      <c r="AA59" s="3">
+        <v>0</v>
       </c>
       <c r="AB59" s="3" t="s">
         <v>5</v>
@@ -4568,8 +4841,14 @@
       <c r="AC59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,8 +4930,14 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4796,29 +5087,35 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
+      <c r="W62" s="3">
+        <v>0</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
       </c>
-      <c r="Y62" s="3">
-        <v>200</v>
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA62" s="3">
         <v>200</v>
       </c>
       <c r="AB62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD62" s="3">
         <v>400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>704700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>685000</v>
+      </c>
+      <c r="F66" s="3">
         <v>645800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>612000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>602600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>582400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>574600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>576700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>560900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>539500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>499900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>484300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>445500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>444200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>446200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>441000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>431900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>428000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>428200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>420500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>411900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>398200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>403700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>403200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>407200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>413800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>404400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>407900</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>49600</v>
+      </c>
+      <c r="F72" s="3">
         <v>47700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>45700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>44200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>42700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>41400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>39900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>38600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>37300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>36000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>34600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>33400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>32600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>31400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>30300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>29300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>28300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>27000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>26000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>25100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>24400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>23800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>23200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>22600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>22300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>22200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>44700</v>
+      </c>
+      <c r="F76" s="3">
         <v>41500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>42300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>50000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>53600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>53000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>52000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>52400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>52100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>50900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>50200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>48600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>48400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>47700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>48000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>46300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>44900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>43200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>42500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>41600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>41600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>42600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>42000</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>41400</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>41000</v>
       </c>
       <c r="AB76" s="3">
         <v>41400</v>
       </c>
       <c r="AC76" s="3">
+        <v>41000</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>41400</v>
+      </c>
+      <c r="AE76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,119 +6387,131 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>2000</v>
       </c>
       <c r="I81" s="3">
         <v>1800</v>
       </c>
       <c r="J81" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K81" s="3">
         <v>1800</v>
@@ -6131,19 +6520,19 @@
         <v>1900</v>
       </c>
       <c r="M81" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="N81" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="O81" s="3">
         <v>1700</v>
       </c>
       <c r="P81" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="Q81" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="R81" s="3">
         <v>1600</v>
@@ -6152,37 +6541,43 @@
         <v>1600</v>
       </c>
       <c r="T81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V81" s="3">
         <v>1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>800</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>600</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>300</v>
       </c>
       <c r="AB81" s="3">
         <v>600</v>
       </c>
       <c r="AC81" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6274,14 +6671,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z83" s="3">
         <v>200</v>
@@ -6295,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,8 +7137,14 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6772,29 +7205,35 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
+      <c r="W89" s="3">
+        <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>1100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>2300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>1100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6886,29 +7327,35 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-200</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
       <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7135,29 +7594,35 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-7600</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7253,10 +7720,10 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Y96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Z96" s="3">
         <v>-200</v>
@@ -7270,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7581,29 +8072,35 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
+      <c r="W100" s="3">
+        <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-6200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>8700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-3400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,8 +8182,14 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7747,25 +8250,31 @@
       <c r="V102" s="3">
         <v>0</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
+      <c r="W102" s="3">
+        <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-5500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>7900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-3200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>WAYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,171 +665,175 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E8" s="3">
         <v>7900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5500</v>
       </c>
       <c r="I8" s="3">
         <v>5500</v>
       </c>
       <c r="J8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K8" s="3">
         <v>5600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>5400</v>
       </c>
       <c r="L8" s="3">
         <v>5400</v>
       </c>
       <c r="M8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="N8" s="3">
         <v>5200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5000</v>
-      </c>
-      <c r="P8" s="3">
-        <v>5100</v>
       </c>
       <c r="Q8" s="3">
         <v>5100</v>
@@ -838,22 +842,22 @@
         <v>5100</v>
       </c>
       <c r="S8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="T8" s="3">
         <v>5000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4400</v>
-      </c>
-      <c r="X8" s="3">
-        <v>4200</v>
       </c>
       <c r="Y8" s="3">
         <v>4200</v>
@@ -862,22 +866,25 @@
         <v>4200</v>
       </c>
       <c r="AA8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AB8" s="3">
         <v>4100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>4000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,73 +1499,74 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>700</v>
       </c>
       <c r="I17" s="3">
         <v>700</v>
       </c>
       <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>800</v>
       </c>
       <c r="O17" s="3">
         <v>800</v>
       </c>
       <c r="P17" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
-      </c>
-      <c r="X17" s="3">
-        <v>600</v>
       </c>
       <c r="Y17" s="3">
         <v>600</v>
@@ -1551,19 +1578,22 @@
         <v>600</v>
       </c>
       <c r="AB17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC17" s="3">
         <v>500</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>700</v>
       </c>
       <c r="AD17" s="3">
         <v>700</v>
       </c>
       <c r="AE17" s="3">
+        <v>700</v>
+      </c>
+      <c r="AF17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,16 +1601,16 @@
         <v>5600</v>
       </c>
       <c r="E18" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F18" s="3">
         <v>5900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4800</v>
       </c>
       <c r="I18" s="3">
         <v>4800</v>
@@ -1589,34 +1619,34 @@
         <v>4800</v>
       </c>
       <c r="K18" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L18" s="3">
         <v>4500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>4200</v>
       </c>
       <c r="P18" s="3">
         <v>4200</v>
       </c>
       <c r="Q18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R18" s="3">
         <v>4100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>4000</v>
       </c>
       <c r="S18" s="3">
         <v>4000</v>
       </c>
       <c r="T18" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="U18" s="3">
         <v>3900</v>
@@ -1625,7 +1655,7 @@
         <v>3900</v>
       </c>
       <c r="W18" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="X18" s="3">
         <v>3600</v>
@@ -1637,22 +1667,25 @@
         <v>3600</v>
       </c>
       <c r="AA18" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="AB18" s="3">
         <v>3500</v>
       </c>
       <c r="AC18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AD18" s="3">
         <v>3200</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>3300</v>
       </c>
       <c r="AE18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,52 +1717,53 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-2000</v>
       </c>
       <c r="R20" s="3">
         <v>-2000</v>
@@ -1744,37 +1778,40 @@
         <v>-2000</v>
       </c>
       <c r="V20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="W20" s="3">
         <v>-2100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-2800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-2500</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1844,26 +1881,29 @@
       <c r="Y21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3">
         <v>1400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>900</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,55 +1991,58 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2500</v>
       </c>
       <c r="H23" s="3">
         <v>2500</v>
       </c>
       <c r="I23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J23" s="3">
         <v>2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1900</v>
       </c>
       <c r="S23" s="3">
         <v>1900</v>
@@ -2011,42 +2054,45 @@
         <v>1900</v>
       </c>
       <c r="V23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="W23" s="3">
         <v>1700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>700</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
         <v>600</v>
@@ -2055,13 +2101,13 @@
         <v>600</v>
       </c>
       <c r="G24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H24" s="3">
         <v>500</v>
       </c>
       <c r="I24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J24" s="3">
         <v>400</v>
@@ -2070,67 +2116,70 @@
         <v>400</v>
       </c>
       <c r="L24" s="3">
+        <v>400</v>
+      </c>
+      <c r="M24" s="3">
         <v>500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>400</v>
       </c>
       <c r="N24" s="3">
         <v>400</v>
       </c>
       <c r="O24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
       <c r="Q24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R24" s="3">
         <v>400</v>
       </c>
       <c r="S24" s="3">
+        <v>400</v>
+      </c>
+      <c r="T24" s="3">
         <v>300</v>
-      </c>
-      <c r="T24" s="3">
-        <v>400</v>
       </c>
       <c r="U24" s="3">
         <v>400</v>
       </c>
       <c r="V24" s="3">
+        <v>400</v>
+      </c>
+      <c r="W24" s="3">
         <v>300</v>
-      </c>
-      <c r="W24" s="3">
-        <v>200</v>
       </c>
       <c r="X24" s="3">
         <v>200</v>
       </c>
       <c r="Y24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z24" s="3">
         <v>400</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>300</v>
       </c>
       <c r="AA24" s="3">
         <v>300</v>
       </c>
       <c r="AB24" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC24" s="3">
         <v>200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>100</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>200</v>
       </c>
       <c r="AE24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,55 +2267,58 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1700</v>
-      </c>
-      <c r="R26" s="3">
-        <v>1600</v>
       </c>
       <c r="S26" s="3">
         <v>1600</v>
@@ -2278,84 +2330,87 @@
         <v>1600</v>
       </c>
       <c r="V26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W26" s="3">
         <v>1400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>900</v>
       </c>
       <c r="Z26" s="3">
         <v>900</v>
       </c>
       <c r="AA26" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB26" s="3">
         <v>800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>600</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1700</v>
-      </c>
-      <c r="R27" s="3">
-        <v>1600</v>
       </c>
       <c r="S27" s="3">
         <v>1600</v>
@@ -2367,37 +2422,40 @@
         <v>1600</v>
       </c>
       <c r="V27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W27" s="3">
         <v>1400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>900</v>
       </c>
       <c r="Z27" s="3">
         <v>900</v>
       </c>
       <c r="AA27" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB27" s="3">
         <v>800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2535,8 +2596,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -2553,11 +2614,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,52 +2819,55 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E32" s="3">
         <v>2800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>2000</v>
       </c>
       <c r="R32" s="3">
         <v>2000</v>
@@ -2812,84 +2882,87 @@
         <v>2000</v>
       </c>
       <c r="V32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W32" s="3">
         <v>2100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>2800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>2500</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1700</v>
-      </c>
-      <c r="R33" s="3">
-        <v>1600</v>
       </c>
       <c r="S33" s="3">
         <v>1600</v>
@@ -2901,37 +2974,40 @@
         <v>1600</v>
       </c>
       <c r="V33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W33" s="3">
         <v>1400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>900</v>
       </c>
       <c r="Z33" s="3">
         <v>900</v>
       </c>
       <c r="AA33" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB33" s="3">
         <v>800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,55 +3095,58 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1700</v>
-      </c>
-      <c r="R35" s="3">
-        <v>1600</v>
       </c>
       <c r="S35" s="3">
         <v>1600</v>
@@ -3079,131 +3158,137 @@
         <v>1600</v>
       </c>
       <c r="V35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W35" s="3">
         <v>1400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>900</v>
       </c>
       <c r="Z35" s="3">
         <v>900</v>
       </c>
       <c r="AA35" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB35" s="3">
         <v>800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,120 +3354,124 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E41" s="3">
         <v>10100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>38900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>40700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>46300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>52800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>74500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>53800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>40400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>32800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>30800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>6400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>10100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>5400</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E42" s="3">
         <v>3600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>11500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3300</v>
-      </c>
-      <c r="G42" s="3">
-        <v>4200</v>
       </c>
       <c r="H42" s="3">
         <v>4200</v>
       </c>
       <c r="I42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J42" s="3">
         <v>7900</v>
-      </c>
-      <c r="J42" s="3">
-        <v>4200</v>
       </c>
       <c r="K42" s="3">
         <v>4200</v>
@@ -3429,25 +3519,28 @@
         <v>4200</v>
       </c>
       <c r="Z42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AA42" s="3">
         <v>8400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>8900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>9100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>10800</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>7700</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,121 +3996,127 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5100</v>
       </c>
       <c r="H48" s="3">
         <v>5100</v>
       </c>
       <c r="I48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J48" s="3">
         <v>5200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>5400</v>
       </c>
       <c r="L48" s="3">
         <v>5400</v>
       </c>
       <c r="M48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="N48" s="3">
         <v>5500</v>
-      </c>
-      <c r="N48" s="3">
-        <v>5400</v>
       </c>
       <c r="O48" s="3">
         <v>5400</v>
       </c>
       <c r="P48" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="Q48" s="3">
         <v>5300</v>
       </c>
       <c r="R48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="S48" s="3">
         <v>5400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5600</v>
-      </c>
-      <c r="T48" s="3">
-        <v>5400</v>
       </c>
       <c r="U48" s="3">
         <v>5400</v>
       </c>
       <c r="V48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="W48" s="3">
         <v>5600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>6200</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>6300</v>
       </c>
       <c r="AB48" s="3">
         <v>6300</v>
       </c>
       <c r="AC48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="AD48" s="3">
         <v>6400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>6600</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
         <v>1700</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
         <v>1700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
@@ -4018,8 +4129,8 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -4048,11 +4159,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>1700</v>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA49" s="3">
         <v>1700</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>770800</v>
+      </c>
+      <c r="E54" s="3">
         <v>752600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>729800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>687300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>654200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>652700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>636000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>627600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>628700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>613300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>591600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>550700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>534500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>494100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>492600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>493900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>488900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>478200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>472900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>471500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>463000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>453500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>439800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>446300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>445200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>448600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>454800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>445800</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>449200</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,97 +4710,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E57" s="3">
         <v>5800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>3500</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4758,8 +4892,11 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4826,17 +4963,17 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="3">
         <v>100</v>
       </c>
-      <c r="AA59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="3" t="s">
-        <v>5</v>
+      <c r="AB59" s="3">
+        <v>0</v>
       </c>
       <c r="AC59" s="3" t="s">
         <v>5</v>
@@ -4847,8 +4984,11 @@
       <c r="AE59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4936,8 +5076,11 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5093,14 +5239,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB62" s="3">
         <v>200</v>
@@ -5109,13 +5255,16 @@
         <v>200</v>
       </c>
       <c r="AD62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE62" s="3">
         <v>400</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>722300</v>
+      </c>
+      <c r="E66" s="3">
         <v>704700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>685000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>645800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>612000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>602600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>582400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>574600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>576700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>560900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>539500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>499900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>484300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>445500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>444200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>446200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>441000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>431900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>428000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>428200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>420500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>411900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>398200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>403700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>403200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>407200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>413800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>404400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>407900</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E72" s="3">
         <v>51300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>49600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>47700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>45700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>44200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>42700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>41400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>39900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>38600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>37300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>36000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>34600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>33400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>32600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>31400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>30300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>29300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>28300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>27000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>26000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>25100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>24400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>23800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>23200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>22600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>22300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>22200</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E76" s="3">
         <v>47900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>44700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>41500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>42300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>53600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>53000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>50200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>48600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>48400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>47700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>48000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>46300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>44900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>43200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>42500</v>
-      </c>
-      <c r="X76" s="3">
-        <v>41600</v>
       </c>
       <c r="Y76" s="3">
         <v>41600</v>
       </c>
       <c r="Z76" s="3">
+        <v>41600</v>
+      </c>
+      <c r="AA76" s="3">
         <v>42600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>42000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>41400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>41000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>41400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,149 +6582,155 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1700</v>
-      </c>
-      <c r="R81" s="3">
-        <v>1600</v>
       </c>
       <c r="S81" s="3">
         <v>1600</v>
@@ -6547,37 +6742,40 @@
         <v>1600</v>
       </c>
       <c r="V81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W81" s="3">
         <v>1400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>900</v>
       </c>
       <c r="Z81" s="3">
         <v>900</v>
       </c>
       <c r="AA81" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB81" s="3">
         <v>800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6677,11 +6876,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>200</v>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA83" s="3">
         <v>200</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7211,29 +7428,32 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA89" s="3">
         <v>1100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7333,29 +7554,32 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-200</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
       <c r="AC91" s="3">
         <v>0</v>
       </c>
       <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-100</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7600,29 +7830,32 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-900</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-7600</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7726,7 +7960,7 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AA96" s="3">
         <v>-200</v>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8078,29 +8324,32 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA100" s="3">
         <v>600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-4700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-6200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>8700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-3400</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8256,25 +8508,28 @@
       <c r="X102" s="3">
         <v>0</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-5500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>7900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-3200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WAYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>WAYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AF102"/>
+  <dimension ref="A5:AG102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,182 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AG7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E8" s="3">
         <v>8600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5900</v>
-      </c>
-      <c r="I8" s="3">
-        <v>5500</v>
       </c>
       <c r="J8" s="3">
         <v>5500</v>
       </c>
       <c r="K8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L8" s="3">
         <v>5600</v>
-      </c>
-      <c r="L8" s="3">
-        <v>5400</v>
       </c>
       <c r="M8" s="3">
         <v>5400</v>
       </c>
       <c r="N8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="O8" s="3">
         <v>5200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5000</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>5100</v>
       </c>
       <c r="R8" s="3">
         <v>5100</v>
@@ -845,22 +849,22 @@
         <v>5100</v>
       </c>
       <c r="T8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="U8" s="3">
         <v>5000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4400</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>4200</v>
       </c>
       <c r="Z8" s="3">
         <v>4200</v>
@@ -869,22 +873,25 @@
         <v>4200</v>
       </c>
       <c r="AB8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AC8" s="3">
         <v>4100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>3900</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>4000</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -975,8 +982,11 @@
       <c r="AF9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1067,8 +1077,11 @@
       <c r="AF10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1101,8 +1114,9 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1193,8 +1207,11 @@
       <c r="AF12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1285,8 +1302,11 @@
       <c r="AF13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1377,8 +1397,11 @@
       <c r="AF14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1469,8 +1492,11 @@
       <c r="AF15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1500,76 +1526,77 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-    </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>700</v>
       </c>
       <c r="J17" s="3">
         <v>700</v>
       </c>
       <c r="K17" s="3">
+        <v>700</v>
+      </c>
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>800</v>
       </c>
       <c r="P17" s="3">
         <v>800</v>
       </c>
       <c r="Q17" s="3">
+        <v>800</v>
+      </c>
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>600</v>
       </c>
       <c r="Z17" s="3">
         <v>600</v>
@@ -1581,39 +1608,42 @@
         <v>600</v>
       </c>
       <c r="AC17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD17" s="3">
         <v>500</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>700</v>
       </c>
       <c r="AE17" s="3">
         <v>700</v>
       </c>
       <c r="AF17" s="3">
+        <v>700</v>
+      </c>
+      <c r="AG17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="E18" s="3">
         <v>5600</v>
       </c>
       <c r="F18" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G18" s="3">
         <v>5900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>4800</v>
       </c>
       <c r="J18" s="3">
         <v>4800</v>
@@ -1622,34 +1652,34 @@
         <v>4800</v>
       </c>
       <c r="L18" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M18" s="3">
         <v>4500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>4200</v>
       </c>
       <c r="Q18" s="3">
         <v>4200</v>
       </c>
       <c r="R18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="S18" s="3">
         <v>4100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>4000</v>
       </c>
       <c r="T18" s="3">
         <v>4000</v>
       </c>
       <c r="U18" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="V18" s="3">
         <v>3900</v>
@@ -1658,7 +1688,7 @@
         <v>3900</v>
       </c>
       <c r="X18" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="Y18" s="3">
         <v>3600</v>
@@ -1670,22 +1700,25 @@
         <v>3600</v>
       </c>
       <c r="AB18" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="AC18" s="3">
         <v>3500</v>
       </c>
       <c r="AD18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AE18" s="3">
         <v>3200</v>
-      </c>
-      <c r="AE18" s="3">
-        <v>3300</v>
       </c>
       <c r="AF18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1718,55 +1751,56 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-    </row>
-    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-2000</v>
       </c>
       <c r="S20" s="3">
         <v>-2000</v>
@@ -1781,37 +1815,40 @@
         <v>-2000</v>
       </c>
       <c r="W20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="X20" s="3">
         <v>-2100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-2700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-2800</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-2500</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AG20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1884,26 +1921,29 @@
       <c r="Z21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3">
         <v>1400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>600</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>900</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AG21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1994,58 +2034,61 @@
       <c r="AF22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2500</v>
       </c>
       <c r="I23" s="3">
         <v>2500</v>
       </c>
       <c r="J23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K23" s="3">
         <v>2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1900</v>
       </c>
       <c r="T23" s="3">
         <v>1900</v>
@@ -2057,37 +2100,40 @@
         <v>1900</v>
       </c>
       <c r="W23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="X23" s="3">
         <v>1700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>400</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>700</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AG23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2095,7 +2141,7 @@
         <v>500</v>
       </c>
       <c r="E24" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F24" s="3">
         <v>600</v>
@@ -2104,13 +2150,13 @@
         <v>600</v>
       </c>
       <c r="H24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I24" s="3">
         <v>500</v>
       </c>
       <c r="J24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K24" s="3">
         <v>400</v>
@@ -2119,67 +2165,70 @@
         <v>400</v>
       </c>
       <c r="M24" s="3">
+        <v>400</v>
+      </c>
+      <c r="N24" s="3">
         <v>500</v>
-      </c>
-      <c r="N24" s="3">
-        <v>400</v>
       </c>
       <c r="O24" s="3">
         <v>400</v>
       </c>
       <c r="P24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q24" s="3">
         <v>300</v>
       </c>
       <c r="R24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S24" s="3">
         <v>400</v>
       </c>
       <c r="T24" s="3">
+        <v>400</v>
+      </c>
+      <c r="U24" s="3">
         <v>300</v>
-      </c>
-      <c r="U24" s="3">
-        <v>400</v>
       </c>
       <c r="V24" s="3">
         <v>400</v>
       </c>
       <c r="W24" s="3">
+        <v>400</v>
+      </c>
+      <c r="X24" s="3">
         <v>300</v>
-      </c>
-      <c r="X24" s="3">
-        <v>200</v>
       </c>
       <c r="Y24" s="3">
         <v>200</v>
       </c>
       <c r="Z24" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA24" s="3">
         <v>400</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>300</v>
       </c>
       <c r="AB24" s="3">
         <v>300</v>
       </c>
       <c r="AC24" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD24" s="3">
         <v>200</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>100</v>
-      </c>
-      <c r="AE24" s="3">
-        <v>200</v>
       </c>
       <c r="AF24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2270,58 +2319,61 @@
       <c r="AF25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1700</v>
-      </c>
-      <c r="S26" s="3">
-        <v>1600</v>
       </c>
       <c r="T26" s="3">
         <v>1600</v>
@@ -2333,87 +2385,90 @@
         <v>1600</v>
       </c>
       <c r="W26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X26" s="3">
         <v>1400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>900</v>
       </c>
       <c r="AA26" s="3">
         <v>900</v>
       </c>
       <c r="AB26" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC26" s="3">
         <v>800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>300</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>600</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AG26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>1600</v>
       </c>
       <c r="T27" s="3">
         <v>1600</v>
@@ -2425,37 +2480,40 @@
         <v>1600</v>
       </c>
       <c r="W27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X27" s="3">
         <v>1400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>900</v>
       </c>
       <c r="AA27" s="3">
         <v>900</v>
       </c>
       <c r="AB27" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC27" s="3">
         <v>800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>300</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>600</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AG27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2546,8 +2604,11 @@
       <c r="AF28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2599,8 +2660,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
@@ -2617,11 +2678,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>5</v>
@@ -2638,8 +2699,11 @@
       <c r="AF29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2730,8 +2794,11 @@
       <c r="AF30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2822,55 +2889,58 @@
       <c r="AF31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E32" s="3">
         <v>3300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>2000</v>
       </c>
       <c r="S32" s="3">
         <v>2000</v>
@@ -2885,87 +2955,90 @@
         <v>2000</v>
       </c>
       <c r="W32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X32" s="3">
         <v>2100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>2700</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>2800</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>2500</v>
       </c>
-      <c r="AF32" s="3">
+      <c r="AG32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1700</v>
-      </c>
-      <c r="S33" s="3">
-        <v>1600</v>
       </c>
       <c r="T33" s="3">
         <v>1600</v>
@@ -2977,37 +3050,40 @@
         <v>1600</v>
       </c>
       <c r="W33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X33" s="3">
         <v>1400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>900</v>
       </c>
       <c r="AA33" s="3">
         <v>900</v>
       </c>
       <c r="AB33" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC33" s="3">
         <v>800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>300</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>600</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AG33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3098,58 +3174,61 @@
       <c r="AF34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1700</v>
-      </c>
-      <c r="S35" s="3">
-        <v>1600</v>
       </c>
       <c r="T35" s="3">
         <v>1600</v>
@@ -3161,134 +3240,140 @@
         <v>1600</v>
       </c>
       <c r="W35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X35" s="3">
         <v>1400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>900</v>
       </c>
       <c r="AA35" s="3">
         <v>900</v>
       </c>
       <c r="AB35" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC35" s="3">
         <v>800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>300</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>600</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AG35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
-      <c r="AF38" s="2">
+      <c r="AG38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3321,8 +3406,9 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3355,126 +3441,130 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E41" s="3">
         <v>11300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>38900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>40700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>46300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>56600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>52800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>74500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>53800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>40400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>32800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>30800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>14600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>6400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>10100</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>5400</v>
       </c>
-      <c r="AF41" s="3">
+      <c r="AG41" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E42" s="3">
         <v>5600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>11500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3300</v>
-      </c>
-      <c r="H42" s="3">
-        <v>4200</v>
       </c>
       <c r="I42" s="3">
         <v>4200</v>
       </c>
       <c r="J42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K42" s="3">
         <v>7900</v>
-      </c>
-      <c r="K42" s="3">
-        <v>4200</v>
       </c>
       <c r="L42" s="3">
         <v>4200</v>
@@ -3522,25 +3612,28 @@
         <v>4200</v>
       </c>
       <c r="AA42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AB42" s="3">
         <v>8400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>8900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>9100</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>10800</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>7700</v>
       </c>
-      <c r="AF42" s="3">
+      <c r="AG42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3631,8 +3724,11 @@
       <c r="AF43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3723,8 +3819,11 @@
       <c r="AF44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3815,8 +3914,11 @@
       <c r="AF45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3907,8 +4009,11 @@
       <c r="AF46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3999,8 +4104,11 @@
       <c r="AF47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -4008,91 +4116,94 @@
         <v>5000</v>
       </c>
       <c r="E48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F48" s="3">
         <v>5100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5100</v>
       </c>
       <c r="I48" s="3">
         <v>5100</v>
       </c>
       <c r="J48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K48" s="3">
         <v>5200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>5400</v>
       </c>
       <c r="M48" s="3">
         <v>5400</v>
       </c>
       <c r="N48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="O48" s="3">
         <v>5500</v>
-      </c>
-      <c r="O48" s="3">
-        <v>5400</v>
       </c>
       <c r="P48" s="3">
         <v>5400</v>
       </c>
       <c r="Q48" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="R48" s="3">
         <v>5300</v>
       </c>
       <c r="S48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="T48" s="3">
         <v>5400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5600</v>
-      </c>
-      <c r="U48" s="3">
-        <v>5400</v>
       </c>
       <c r="V48" s="3">
         <v>5400</v>
       </c>
       <c r="W48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="X48" s="3">
         <v>5600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>6100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6200</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>6300</v>
       </c>
       <c r="AC48" s="3">
         <v>6300</v>
       </c>
       <c r="AD48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="AE48" s="3">
         <v>6400</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>6600</v>
       </c>
-      <c r="AF48" s="3">
+      <c r="AG48" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4102,24 +4213,24 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
         <v>1700</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>1700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
@@ -4132,8 +4243,8 @@
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -4162,11 +4273,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>1700</v>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB49" s="3">
         <v>1700</v>
@@ -4183,8 +4294,11 @@
       <c r="AF49" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG49" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4275,8 +4389,11 @@
       <c r="AF50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4367,8 +4484,11 @@
       <c r="AF51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4459,8 +4579,11 @@
       <c r="AF52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4551,100 +4674,106 @@
       <c r="AF53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>798200</v>
+      </c>
+      <c r="E54" s="3">
         <v>770800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>752600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>729800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>687300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>654200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>652700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>636000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>627600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>628700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>613300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>591600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>550700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>534500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>494100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>492600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>493900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>488900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>478200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>472900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>471500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>463000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>453500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>439800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>446300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>445200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>448600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>454800</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>445800</v>
       </c>
-      <c r="AF54" s="3">
+      <c r="AG54" s="3">
         <v>449200</v>
       </c>
     </row>
-    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4677,8 +4806,9 @@
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
-    </row>
-    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG55" s="3"/>
+    </row>
+    <row r="56" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4711,100 +4841,104 @@
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
-    </row>
-    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG56" s="3"/>
+    </row>
+    <row r="57" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>4600</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>3500</v>
       </c>
-      <c r="AF57" s="3">
+      <c r="AG57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4895,8 +5029,11 @@
       <c r="AF58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4966,17 +5103,17 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB59" s="3">
         <v>100</v>
       </c>
-      <c r="AB59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="3" t="s">
-        <v>5</v>
+      <c r="AC59" s="3">
+        <v>0</v>
       </c>
       <c r="AD59" s="3" t="s">
         <v>5</v>
@@ -4987,8 +5124,11 @@
       <c r="AF59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -5079,8 +5219,11 @@
       <c r="AF60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5171,8 +5314,11 @@
       <c r="AF61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5242,14 +5388,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="3">
         <v>200</v>
@@ -5258,13 +5404,16 @@
         <v>200</v>
       </c>
       <c r="AE62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF62" s="3">
         <v>400</v>
       </c>
-      <c r="AF62" s="3">
+      <c r="AG62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5355,8 +5504,11 @@
       <c r="AF63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5447,8 +5599,11 @@
       <c r="AF64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5539,100 +5694,106 @@
       <c r="AF65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>750700</v>
+      </c>
+      <c r="E66" s="3">
         <v>722300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>704700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>685000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>645800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>612000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>602600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>582400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>574600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>576700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>560900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>539500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>499900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>484300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>445500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>444200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>446200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>441000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>431900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>428000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>428200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>420500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>411900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>398200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>403700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>403200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>407200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>413800</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>404400</v>
       </c>
-      <c r="AF66" s="3">
+      <c r="AG66" s="3">
         <v>407900</v>
       </c>
     </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5665,8 +5826,9 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
-    </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG67" s="3"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5757,8 +5919,11 @@
       <c r="AF68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5849,8 +6014,11 @@
       <c r="AF69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5941,8 +6109,11 @@
       <c r="AF70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -6033,100 +6204,106 @@
       <c r="AF71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E72" s="3">
         <v>52500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>51300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>49600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>47700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>45700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>44200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>42700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>41400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>39900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>38600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>37300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>36000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>34600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>33400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>32600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>31400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>30300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>29300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>28300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>27000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>26000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>25100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>24400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>23800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>23200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>22600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>22300</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>22200</v>
       </c>
-      <c r="AF72" s="3">
+      <c r="AG72" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6217,8 +6394,11 @@
       <c r="AF73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6309,8 +6489,11 @@
       <c r="AF74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6401,100 +6584,106 @@
       <c r="AF75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E76" s="3">
         <v>48500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>44700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>42300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>53600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>53000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>50900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>50200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>48600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>48400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>47700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>48000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>46300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>44900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>43200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>42500</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>41600</v>
       </c>
       <c r="Z76" s="3">
         <v>41600</v>
       </c>
       <c r="AA76" s="3">
+        <v>41600</v>
+      </c>
+      <c r="AB76" s="3">
         <v>42600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>42000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>41400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>41000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>41400</v>
       </c>
-      <c r="AF76" s="3">
+      <c r="AG76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6585,155 +6774,161 @@
       <c r="AF77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
-      <c r="AF80" s="2">
+      <c r="AG80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1700</v>
-      </c>
-      <c r="S81" s="3">
-        <v>1600</v>
       </c>
       <c r="T81" s="3">
         <v>1600</v>
@@ -6745,37 +6940,40 @@
         <v>1600</v>
       </c>
       <c r="W81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X81" s="3">
         <v>1400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>900</v>
       </c>
       <c r="AA81" s="3">
         <v>900</v>
       </c>
       <c r="AB81" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC81" s="3">
         <v>800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>300</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>600</v>
       </c>
-      <c r="AF81" s="3">
+      <c r="AG81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6808,8 +7006,9 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
-    </row>
-    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG82" s="3"/>
+    </row>
+    <row r="83" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6879,11 +7078,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>200</v>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB83" s="3">
         <v>200</v>
@@ -6900,8 +7099,11 @@
       <c r="AF83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6992,8 +7194,11 @@
       <c r="AF84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -7084,8 +7289,11 @@
       <c r="AF85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -7176,8 +7384,11 @@
       <c r="AF86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7268,8 +7479,11 @@
       <c r="AF87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7360,8 +7574,11 @@
       <c r="AF88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7431,29 +7648,32 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB89" s="3">
         <v>1100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>2300</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>1100</v>
       </c>
-      <c r="AF89" s="3">
+      <c r="AG89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7486,8 +7706,9 @@
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
-    </row>
-    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG90" s="3"/>
+    </row>
+    <row r="91" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7557,29 +7778,32 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA91" s="3">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-200</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
-      </c>
       <c r="AD91" s="3">
         <v>0</v>
       </c>
       <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3">
         <v>-100</v>
       </c>
-      <c r="AF91" s="3">
+      <c r="AG91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7670,8 +7894,11 @@
       <c r="AF92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7762,8 +7989,11 @@
       <c r="AF93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7833,29 +8063,32 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA94" s="3">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-3100</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-900</v>
       </c>
-      <c r="AF94" s="3">
+      <c r="AG94" s="3">
         <v>-7600</v>
       </c>
     </row>
-    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7888,8 +8121,9 @@
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
-    </row>
-    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG95" s="3"/>
+    </row>
+    <row r="96" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7963,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AB96" s="3">
         <v>-200</v>
@@ -7980,8 +8214,11 @@
       <c r="AF96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -8072,8 +8309,11 @@
       <c r="AF97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -8164,8 +8404,11 @@
       <c r="AF98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8256,8 +8499,11 @@
       <c r="AF99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8327,29 +8573,32 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB100" s="3">
         <v>600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-4700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-6200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>8700</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-3400</v>
       </c>
-      <c r="AF100" s="3">
+      <c r="AG100" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8440,8 +8689,11 @@
       <c r="AF101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8511,25 +8763,28 @@
       <c r="Y102" s="3">
         <v>0</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-3200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-5500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>7900</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-3200</v>
       </c>
-      <c r="AF102" s="3">
+      <c r="AG102" s="3">
         <v>3900</v>
       </c>
     </row>
